--- a/data/hotels_by_city/Houston/Houston_shard_516.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_516.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="481">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56110-d1675659-Reviews-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Quality-Inn-Suites-La-Porte.h3173214.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1350 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r563961078-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>1675659</t>
+  </si>
+  <si>
+    <t>563961078</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>I night stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was nice n comfy. Had 2 queen beds, check in n out easy. Very nice breakfast. Of  course the Texas shaped waffle was a big hit. Eggs, sausage, cereal,yogurt, fruit, bagels ,danish, a nice variety of breakfast. Good location to nasa, kehma, Houston. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r549059023-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>549059023</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>Small comfortable hotel</t>
+  </si>
+  <si>
+    <t>We had a pit stop here for a night on our way to the Galveston cruise terminal.First impressions of the hotel upon driving were that of a dull lighting and a weird smell. The staff, however, was friendly and assigned us our room quickly. The room was pretty neat and cozy though. Nothing unusual inside - just the usual stuff you would expect at a Quality Inn.The beds were comfortable, bathroom clean,  and breakfast sumptuous with enough varieties for the price we paid. Would definitely recommend it to anyone for a short stay.Advise to the hotel (my 2 cents) : a bit of brighter lighting in the entrance hallways and some fresh scent might help spruce up the hotel for a better look, I think !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>We had a pit stop here for a night on our way to the Galveston cruise terminal.First impressions of the hotel upon driving were that of a dull lighting and a weird smell. The staff, however, was friendly and assigned us our room quickly. The room was pretty neat and cozy though. Nothing unusual inside - just the usual stuff you would expect at a Quality Inn.The beds were comfortable, bathroom clean,  and breakfast sumptuous with enough varieties for the price we paid. Would definitely recommend it to anyone for a short stay.Advise to the hotel (my 2 cents) : a bit of brighter lighting in the entrance hallways and some fresh scent might help spruce up the hotel for a better look, I think !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r544511562-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>544511562</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unprofessional </t>
+  </si>
+  <si>
+    <t>I resently stayed at the Quality Inn in LA Porte, Texas. The service from the staff was fabulous. The desk clerks were very helpful and took care of all our needs. The reason for the poor score is the unprofessionalism of the general manager. She came out to the front desk in boots shorts, being loud and rude to her staff workers &amp; rude with customers. Not a good manager at all. Don't think we will stay at this establishment again. Good thing we don't have children.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r506344631-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>506344631</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Great stay for Citypass attractions!</t>
+  </si>
+  <si>
+    <t>We enjoyed our three night stay at this hotel. The rooms were clean and comfortable and the breakfast is good- it just needs more seating. The pool area is pretty small, so we didn't try it out. We were there to use our Citypass to visit metro attractions and this hotel is in a wonderful location for that. The traffic is easy and Nasa, Clear Lake, Kemah Boardwalk, the San Jacinto Monument and Battleship Texas are all short drives away. Even the zoo, aquarium and natural history museum are within a half hour drive. We will definitely stay again if we are in the area. Thanks!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r501917233-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>501917233</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average business class hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had a good experience while I stayed at the hotel. I only expend one night but everything was the way you will expect for a business class hotel. Rooms confortable, they offer wifi and complementary breakfast. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r491762387-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>491762387</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREAT HOTEL </t>
+  </si>
+  <si>
+    <t>Mandy checked us in.  Super friendly and fast check in.  Great location.  Not too much traffic.  Clean.  Good breakfast.  Would definitely stay here again.  Located right off 146 south.  Easy to get to Kemah and Galveston.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r415286819-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>415286819</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Quiet Motel Short Drive From Space Center or Kemah Boardwalk</t>
+  </si>
+  <si>
+    <t>Quiet location a short drive from the Houston Space Center or Kemah Boardwalk. Friendly staff, indoor pool, and fitness center are pros. Poor wi-fi connection, some wear and tear on furnishings, and ordinary breakfast are cons. Price is reasonable, if you are willing to drive to restaurants and attractions.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r403618412-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>403618412</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Nice accommodations</t>
+  </si>
+  <si>
+    <t>Staff was very kind and courteous when we arrived.  Ms. Anna explained where everything was located in the hotel, gave us breakfast times, etc.  Rooms were neat and clean.  Bed very comfortable.  We were not too far from places to eat and shop.  Good location to drive to both Galveston and Houston.  The indoor pool was a plus as we were traveling with kids and they LOVED it.  The only problem we had was that someone wasted a whole soda on one of the beds and there was no housekeeping staff on location.  It took the front desk a while to locate linen and bedding and we had to go back down to retrieve it and make our own bed.   The breakfast is very good and some of the morning staff was very nice and friendly, while others were not.  Over all, a very pleasant hotel with nice staff, comfortable beds, and good location to eateries and other attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Staff was very kind and courteous when we arrived.  Ms. Anna explained where everything was located in the hotel, gave us breakfast times, etc.  Rooms were neat and clean.  Bed very comfortable.  We were not too far from places to eat and shop.  Good location to drive to both Galveston and Houston.  The indoor pool was a plus as we were traveling with kids and they LOVED it.  The only problem we had was that someone wasted a whole soda on one of the beds and there was no housekeeping staff on location.  It took the front desk a while to locate linen and bedding and we had to go back down to retrieve it and make our own bed.   The breakfast is very good and some of the morning staff was very nice and friendly, while others were not.  Over all, a very pleasant hotel with nice staff, comfortable beds, and good location to eateries and other attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r400220158-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>400220158</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Ok long term stay :!</t>
+  </si>
+  <si>
+    <t>I stayed here for work long term recently. It was ok, but I wouldn't stay here on vacation.The people who run the hotel are nice but there are a few things that just aren't up to my standards. The carpeting is very dirty and smells badly in the common areas. They also keep it very hot in the common areas. The only washer and dryer they have available for guests to use doesn't work well and smells. Housekeeping is on the slightly on the lacking side also. However, they have very good weekly rates if you are in the area working.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded August 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for work long term recently. It was ok, but I wouldn't stay here on vacation.The people who run the hotel are nice but there are a few things that just aren't up to my standards. The carpeting is very dirty and smells badly in the common areas. They also keep it very hot in the common areas. The only washer and dryer they have available for guests to use doesn't work well and smells. Housekeeping is on the slightly on the lacking side also. However, they have very good weekly rates if you are in the area working.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r373387535-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>373387535</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of it's great price for the area and also closeness to Kemah Boardwalk. On arrival we were greeted by a very helpful staff. The room was nice and clean and well maintained we were traveling with our Grandkids who really enjoyed the indoor pool. The free breakfast was very good and had a nice variety to choose from.Overall a very quiet pleasant stay. I highly recommend this hotel when looking for a nice place to stay in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of it's great price for the area and also closeness to Kemah Boardwalk. On arrival we were greeted by a very helpful staff. The room was nice and clean and well maintained we were traveling with our Grandkids who really enjoyed the indoor pool. The free breakfast was very good and had a nice variety to choose from.Overall a very quiet pleasant stay. I highly recommend this hotel when looking for a nice place to stay in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r370783307-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>370783307</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Fine for a night or two</t>
+  </si>
+  <si>
+    <t>Rooms were clean and well maintained.  Their electronic key system had just failed when we arrived, so they had to personally let us into our room every time we went in and out.  I'm not dinging them for it in the review because they were working frantically to get it fixed.  One odd thing were the frosted room windows (not bathroom windows, main windows) on the north side of the building on the upper floors.  Apparently it was a compromise with the neighborhood behind the hotel that didn't want guests looking into their backyards.  Quality for the price was about average.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r364684712-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>364684712</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Stay at Quality Inn and Suites La Porte</t>
+  </si>
+  <si>
+    <t>We chose this hotel due to it close proximity to Kemah Boardwalk and Battleship Texas. At check in we were greeted by a very helpful young lady, I did not catch her name though. The room I was checked in was really clean it had 2 queen bed and comfortably fitted me my husband and 2 boys. There was no faults other than the TV channels had gone out since it was rainy but that is that the hotel's fault. They had it repaired within 4 hours by a technician. The pool was indoors so it worked out perfect for the boys to swim even with the rain. The hotel had a lot of area workers too but they were not a rowdy bunch which we initially were worried about. Overall we enjoyed the stay....MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this hotel due to it close proximity to Kemah Boardwalk and Battleship Texas. At check in we were greeted by a very helpful young lady, I did not catch her name though. The room I was checked in was really clean it had 2 queen bed and comfortably fitted me my husband and 2 boys. There was no faults other than the TV channels had gone out since it was rainy but that is that the hotel's fault. They had it repaired within 4 hours by a technician. The pool was indoors so it worked out perfect for the boys to swim even with the rain. The hotel had a lot of area workers too but they were not a rowdy bunch which we initially were worried about. Overall we enjoyed the stay....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r351531242-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>351531242</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>pleasurable stay, no surprises</t>
+  </si>
+  <si>
+    <t>Motel has maintained it's appearance and cleanliness since I visited last year. Room was clean but not as bright as I remembered. The window was frosted so You could not see outside and the bulbs were minimum wattage. I would have preferred more light. AC was great....fan continuously circulated air and temp was maintained providing for a good nights sleep. Bed was comfortable bathroom fixtures in good shape. Room had a desk/chair, mw/refrig, 36" led tv and a dresser, ez chair/ottoman. Ample plugs for e devices. Exercise room had nice modern equipment. Indoor pool and hotub were down for repairs.Breakfast was good with an average assortment consisting of yogurt, eggs, sausage, waffles, some fruit plus cereals. Ample parking and dollies to usher in your goodies.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Motel has maintained it's appearance and cleanliness since I visited last year. Room was clean but not as bright as I remembered. The window was frosted so You could not see outside and the bulbs were minimum wattage. I would have preferred more light. AC was great....fan continuously circulated air and temp was maintained providing for a good nights sleep. Bed was comfortable bathroom fixtures in good shape. Room had a desk/chair, mw/refrig, 36" led tv and a dresser, ez chair/ottoman. Ample plugs for e devices. Exercise room had nice modern equipment. Indoor pool and hotub were down for repairs.Breakfast was good with an average assortment consisting of yogurt, eggs, sausage, waffles, some fruit plus cereals. Ample parking and dollies to usher in your goodies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r349211623-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>349211623</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Anniversary </t>
+  </si>
+  <si>
+    <t>This place was nice great for the price altho the over night girl was rude and unique helpful the hot breakfast was great. Ginana was so helpful and awesome she said she was even from Missouri The pool was cold and the hot tub wasn't hot at all. But the bed is nice and clean and it's close so I give it 5 outta 5 they nailed it.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This place was nice great for the price altho the over night girl was rude and unique helpful the hot breakfast was great. Ginana was so helpful and awesome she said she was even from Missouri The pool was cold and the hot tub wasn't hot at all. But the bed is nice and clean and it's close so I give it 5 outta 5 they nailed it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r339496703-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>339496703</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Quality Inn and Suites.</t>
+  </si>
+  <si>
+    <t>This was the closest hotel to the Houston Port.  Reasonably priced with a hot breakfast.  The staff was great.  The rooms were clean and the bed and pillows were fine.  They offer a shuttle to the port for $15.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded January 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2016</t>
+  </si>
+  <si>
+    <t>This was the closest hotel to the Houston Port.  Reasonably priced with a hot breakfast.  The staff was great.  The rooms were clean and the bed and pillows were fine.  They offer a shuttle to the port for $15.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r291299721-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>291299721</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Fair room but expected better</t>
+  </si>
+  <si>
+    <t>Spent just one night.  There was some type of mixup and it took 20 minutes to check in.   They had to verify if the room was available and clean.  Room was average until my wife found a roach on the wall in the morning.  I paid just as much on other rooms and got much better service and room. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Spent just one night.  There was some type of mixup and it took 20 minutes to check in.   They had to verify if the room was available and clean.  Room was average until my wife found a roach on the wall in the morning.  I paid just as much on other rooms and got much better service and room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r287763720-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>287763720</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Galveston for the 4th of July</t>
+  </si>
+  <si>
+    <t>I believe the hotel is primarily there for refinery workers, so the location is a little out there. The staff more than make up for the extra driving. My family and I were going to Houston and Galveston. So this was about halfway and worked out pretty good.The beds are very comfortable and the indoor pool was nice in July in south Texas.The wifi was not working in my room but the staff said they had already called their I.T. people to work on it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded July 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2015</t>
+  </si>
+  <si>
+    <t>I believe the hotel is primarily there for refinery workers, so the location is a little out there. The staff more than make up for the extra driving. My family and I were going to Houston and Galveston. So this was about halfway and worked out pretty good.The beds are very comfortable and the indoor pool was nice in July in south Texas.The wifi was not working in my room but the staff said they had already called their I.T. people to work on it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r279623473-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>279623473</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>Try somewhere else. The only reason I have it two stars was because the front desk staff was extremely nice. I checked in and the room smelled like mold. They sprayed with freshener but it didn't help. Then the satellite tv didn't work correctly. I had very few channels. It never was fixed properly. I spoke to a woman who has been given room 101 and 103 and they were infested with fleas!  My room had sugar ants all over the bathroom counter. The bed itself was comfortable but the pillows were like small rocks. Did I mention the pool?  It was murky and I was afraid to swim in it-not to mention the used bandaid that was floating In it! The pool didn't seem to have enough chlorine to be sanitary. Breakfast was typical. Waffles. Cereal, pastry ,coffee ,yogurt, powdered eggs , toast ,bagels, oatmeal. Edible. I just expected more and I won't be staying again. Also if you visit laporte-read the water quality report that is left at the front desk at this hotel!! Don't drink the water. Locals drink bottled. MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Try somewhere else. The only reason I have it two stars was because the front desk staff was extremely nice. I checked in and the room smelled like mold. They sprayed with freshener but it didn't help. Then the satellite tv didn't work correctly. I had very few channels. It never was fixed properly. I spoke to a woman who has been given room 101 and 103 and they were infested with fleas!  My room had sugar ants all over the bathroom counter. The bed itself was comfortable but the pillows were like small rocks. Did I mention the pool?  It was murky and I was afraid to swim in it-not to mention the used bandaid that was floating In it! The pool didn't seem to have enough chlorine to be sanitary. Breakfast was typical. Waffles. Cereal, pastry ,coffee ,yogurt, powdered eggs , toast ,bagels, oatmeal. Edible. I just expected more and I won't be staying again. Also if you visit laporte-read the water quality report that is left at the front desk at this hotel!! Don't drink the water. Locals drink bottled. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r254591876-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>254591876</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>A disgusting rip off</t>
+  </si>
+  <si>
+    <t>I see other reviewers overnight here prior to cruise vacations.  I had an employer book this for me due to location to the job.  I can't get out of here fast enough.  Room was dirty on arrival, sheets appeared left from previous guest and had stains on them.  Do I need to continue after that???  Light bulbs burnt out (no big deal but I see a trend), heating/cooling unit on the stinky side, no closet rod in the closet, they had hangers hung on the edge of the shelf.  Overall feel of the room was dirty.  Internet not working.  I would guess it rarely does but cruise overnighters wouldn't know the difference when the desk tells you its due to weather.  It was CLOUDY!!  Passed along concerns to manager, no desire to accommodate an early check out.  Will contact corporate and let them know how the brand is being represented.I spend 200+ nights a year in a hotel, travelling for business.  This is poor.  I would not allow my family to sleep here.   I must say that the staff was polite and courteous, I be live the issue is the management.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Samtxa55, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2015</t>
+  </si>
+  <si>
+    <t>I see other reviewers overnight here prior to cruise vacations.  I had an employer book this for me due to location to the job.  I can't get out of here fast enough.  Room was dirty on arrival, sheets appeared left from previous guest and had stains on them.  Do I need to continue after that???  Light bulbs burnt out (no big deal but I see a trend), heating/cooling unit on the stinky side, no closet rod in the closet, they had hangers hung on the edge of the shelf.  Overall feel of the room was dirty.  Internet not working.  I would guess it rarely does but cruise overnighters wouldn't know the difference when the desk tells you its due to weather.  It was CLOUDY!!  Passed along concerns to manager, no desire to accommodate an early check out.  Will contact corporate and let them know how the brand is being represented.I spend 200+ nights a year in a hotel, travelling for business.  This is poor.  I would not allow my family to sleep here.   I must say that the staff was polite and courteous, I be live the issue is the management.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r253178304-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>253178304</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>Great for a stay B4 our cruise</t>
+  </si>
+  <si>
+    <t>Staff friendly and helpful, available business office with free prints. Great room for the price we paid, but we are choice members, so I think we were upgraded. Breakfast very nice, waffle iron in the shape of Texas . Yes, hotel could use some updating. 15 dollar shuttle to port was a great rate, some disorganization on the transfer but they were accommodating once the concern was brought to their attention.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Staff friendly and helpful, available business office with free prints. Great room for the price we paid, but we are choice members, so I think we were upgraded. Breakfast very nice, waffle iron in the shape of Texas . Yes, hotel could use some updating. 15 dollar shuttle to port was a great rate, some disorganization on the transfer but they were accommodating once the concern was brought to their attention.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r246423413-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>246423413</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>A Decent Enough Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at the Quality Inn &amp; Suites over the Christmas holiday.  My room was very nice with plenty of room and a large comfortable bed.  The bathroom/shower was in a small connecting room with plenty of space to move around in.  The breakfast area consisted of your standard breakfast fare, scrambled eggs with sausage, making your own waffles in the shape of the state of Texas, your choice of cold cereal, and muffins with plenty of juices and coffee.  It was a fairly quiet time at this hotel with no real noise issues from other guests.The only fly in the ointment with my stay at this hotel was the condition of the pool and hot tub.  The water in both looked like it hadn't been cleaned in some time with the water being a greenish color instead of clear/light blue.  Needless to say, I didn't take a dip in either one.  Aside from those issues, my stay here was pleasant and I would consider staying here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed at the Quality Inn &amp; Suites over the Christmas holiday.  My room was very nice with plenty of room and a large comfortable bed.  The bathroom/shower was in a small connecting room with plenty of space to move around in.  The breakfast area consisted of your standard breakfast fare, scrambled eggs with sausage, making your own waffles in the shape of the state of Texas, your choice of cold cereal, and muffins with plenty of juices and coffee.  It was a fairly quiet time at this hotel with no real noise issues from other guests.The only fly in the ointment with my stay at this hotel was the condition of the pool and hot tub.  The water in both looked like it hadn't been cleaned in some time with the water being a greenish color instead of clear/light blue.  Needless to say, I didn't take a dip in either one.  Aside from those issues, my stay here was pleasant and I would consider staying here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r234802403-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>234802403</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>What good is a confirmation number</t>
+  </si>
+  <si>
+    <t>Called ahead mid-afternoon to make sure we had a non - smoking room available. Only to find out my name wasn't on their reservation list.I called them right back with the confirmation number....Nope not in the system. Had our travel dept call... same problem.... so even with a confirmed/guaranteed reservation you should worry here! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Called ahead mid-afternoon to make sure we had a non - smoking room available. Only to find out my name wasn't on their reservation list.I called them right back with the confirmation number....Nope not in the system. Had our travel dept call... same problem.... so even with a confirmed/guaranteed reservation you should worry here! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r227203376-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>227203376</t>
+  </si>
+  <si>
+    <t>09/05/2014</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>Very nice and clean. The room was excellent. It's obvious that management takes great pride in their property and are willing to do whatever it takes to attract customers. The pool area was very clean although we didn't use it, we did check it out for our review. The property overall was well cared for and should we come this way again we would stay here. We highly recommend this Quality Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Very nice and clean. The room was excellent. It's obvious that management takes great pride in their property and are willing to do whatever it takes to attract customers. The pool area was very clean although we didn't use it, we did check it out for our review. The property overall was well cared for and should we come this way again we would stay here. We highly recommend this Quality Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r225450712-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>225450712</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Warning! For your own safety, do not stay here.</t>
+  </si>
+  <si>
+    <t>I have traveled for 106 days this year and have never had a hotel experience this bad. At first sight, this is a very nice hotel. Nice exterior and nice lobby. After you spend the money and sign to the cancellation fee,they have you. The first room smelled like a flooded basement. When I went to ask for a different room, they were fully booked. The room had more mold in the bathroom than you wanted. You felt dirty from just looking at the shower. There was black mold that surrounded the wall around the AC unit. The next day I did receive a new room, only to have this one infested with mold also. The bathroom had not been cleaned and there was more hair on the floor than I have on my head. This was all I could take. I checked out and moved on to a new hotel in La Porte. This place should be shut down by the Board of Health. Do not waste your money. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2014</t>
+  </si>
+  <si>
+    <t>I have traveled for 106 days this year and have never had a hotel experience this bad. At first sight, this is a very nice hotel. Nice exterior and nice lobby. After you spend the money and sign to the cancellation fee,they have you. The first room smelled like a flooded basement. When I went to ask for a different room, they were fully booked. The room had more mold in the bathroom than you wanted. You felt dirty from just looking at the shower. There was black mold that surrounded the wall around the AC unit. The next day I did receive a new room, only to have this one infested with mold also. The bathroom had not been cleaned and there was more hair on the floor than I have on my head. This was all I could take. I checked out and moved on to a new hotel in La Porte. This place should be shut down by the Board of Health. Do not waste your money. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r213733531-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>213733531</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>Left single lady stranded</t>
+  </si>
+  <si>
+    <t>I made a reservation through a travel site.  I tried to check in early before I went to my friend's wedding reception.  I was told I would be charged $15 to check in ONE hour early.  I said I will just check in after the wedding then.  I arrived back at the hotel around 10:15pm, and the lady couldn't find my reservation.  She got the manager and he told me I had to leave, my reservation had been canceled since I didn't check in my 6pm.  It was the same guy I dealt with earlier.  He told me that it was because the travel site I used had that stipulation and I should read the fine print on my confirmation.   I did, nothing!!!! Everything was booked and I didn't know what else to do so I called my friend and had to sleep on their couch, the night of their wedding!   I called the booking agency, they told me the hotel still showed me on their books!!!!! Do not stay at this hotel or even attempt to.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2014</t>
+  </si>
+  <si>
+    <t>I made a reservation through a travel site.  I tried to check in early before I went to my friend's wedding reception.  I was told I would be charged $15 to check in ONE hour early.  I said I will just check in after the wedding then.  I arrived back at the hotel around 10:15pm, and the lady couldn't find my reservation.  She got the manager and he told me I had to leave, my reservation had been canceled since I didn't check in my 6pm.  It was the same guy I dealt with earlier.  He told me that it was because the travel site I used had that stipulation and I should read the fine print on my confirmation.   I did, nothing!!!! Everything was booked and I didn't know what else to do so I called my friend and had to sleep on their couch, the night of their wedding!   I called the booking agency, they told me the hotel still showed me on their books!!!!! Do not stay at this hotel or even attempt to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r212258727-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>212258727</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Vacation spot</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel with my kids for our vacation and had a great time! Indoor pool was great since we weren't able to go to the beach due to the rain. Staff was very friendly and rooms were clean. Breakfast was good especially the Texas shaped waffles! We plan to come back next year for our vacation!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel with my kids for our vacation and had a great time! Indoor pool was great since we weren't able to go to the beach due to the rain. Staff was very friendly and rooms were clean. Breakfast was good especially the Texas shaped waffles! We plan to come back next year for our vacation!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r212110640-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>212110640</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>Nice Weekend Stay!</t>
+  </si>
+  <si>
+    <t>My family and I had stayed hotel this past weekend and we had a great stay. The staff was great and we enjoyed that there was a indoor pool as Friday it was raining. My wife and I loved the breakfast in the morning as they had are favorite which were waffles shaped like Texas. The young manger was nice as he had recommended great restaurants in the area and told us about the beach 2 miles away. Hotel is nicely maintained and surely will stay here when going back to kemah. See you soon guys..- KenMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>My family and I had stayed hotel this past weekend and we had a great stay. The staff was great and we enjoyed that there was a indoor pool as Friday it was raining. My wife and I loved the breakfast in the morning as they had are favorite which were waffles shaped like Texas. The young manger was nice as he had recommended great restaurants in the area and told us about the beach 2 miles away. Hotel is nicely maintained and surely will stay here when going back to kemah. See you soon guys..- KenMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r207113832-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>207113832</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Poor management</t>
+  </si>
+  <si>
+    <t>Major management problem. Stayed three nights &amp; never did really get room serviced by housekeeping. Had to go to front desk several times1st nite - never cleaned, next nite - clean towels - nothing else. When I was at front desk other guests waiting to voice same concerns. Housekeeping has children with then &amp; they were running up &amp; down halls......MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Samtxa55, Front Office Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Major management problem. Stayed three nights &amp; never did really get room serviced by housekeeping. Had to go to front desk several times1st nite - never cleaned, next nite - clean towels - nothing else. When I was at front desk other guests waiting to voice same concerns. Housekeeping has children with then &amp; they were running up &amp; down halls......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r204167967-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>204167967</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Good - just too close to chemical plants and oil refineries</t>
+  </si>
+  <si>
+    <t>The place was nice with not too much traffic and near several towns and cities. Continental breakfast is regular. Most of all  hotel is surrounded by chemical plants and oil refineries just an FYI. But once inside the hotel I would not notice the smell of those plants besides we stayed for only one night so no big deal. Aside from that it should be ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>The place was nice with not too much traffic and near several towns and cities. Continental breakfast is regular. Most of all  hotel is surrounded by chemical plants and oil refineries just an FYI. But once inside the hotel I would not notice the smell of those plants besides we stayed for only one night so no big deal. Aside from that it should be ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r202616611-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>202616611</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>Terrible experience.. canceled reservation</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at this hotel for 4 years during the NHRA races in Baytown. In January 2014, I reserved my room for this year's races. We were on a flight from  Bogota, Colombia, where we live, excited about our race weekend, and upon landing, I checked my email only to find a note that they canceled my reservation due to too many "extensions". A reservation of 4 months. No offer of assistance finding another room, no apology, just canceled. I called and asked to speak to the manager, who cowardly refused to speak to me. I was offered nothing, and we were out of a room during a busy race weekend. I will NEVER stay at this hotel again, and would not recommend it to anyone. There are way nicer hotels in the area, and we will be staying at them from this point on.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed at this hotel for 4 years during the NHRA races in Baytown. In January 2014, I reserved my room for this year's races. We were on a flight from  Bogota, Colombia, where we live, excited about our race weekend, and upon landing, I checked my email only to find a note that they canceled my reservation due to too many "extensions". A reservation of 4 months. No offer of assistance finding another room, no apology, just canceled. I called and asked to speak to the manager, who cowardly refused to speak to me. I was offered nothing, and we were out of a room during a busy race weekend. I will NEVER stay at this hotel again, and would not recommend it to anyone. There are way nicer hotels in the area, and we will be staying at them from this point on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r196872596-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>196872596</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>worth considering tho' not centrally located</t>
+  </si>
+  <si>
+    <t>Room was large and well appointed, the breakfast was terrific with two style eggs, sausage, fruits, yogurt, cereals, pastries, waffles and more. Easily eat heart healthy breakfast!Nice pool and more....nice place. Not centrally located but on fairmont so easy to commute.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2014</t>
+  </si>
+  <si>
+    <t>Room was large and well appointed, the breakfast was terrific with two style eggs, sausage, fruits, yogurt, cereals, pastries, waffles and more. Easily eat heart healthy breakfast!Nice pool and more....nice place. Not centrally located but on fairmont so easy to commute.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r196525590-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>196525590</t>
+  </si>
+  <si>
+    <t>03/07/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay a week for work.</t>
+  </si>
+  <si>
+    <t>Several guys from my work stayed in town here for a week for training at swagelok. The rooms were clean. We did not see any indication of pests. The maids cleaned and stocked the rooms each day.I would recommend staying in a room on the back of the hotel.  The first night I stayed in a room at the front and traffic made it difficult to sleep.  The front desk person Monica switched my room without any problem. She was friendly and courteous. The other front desk person Leah was also very helpful. Due to inclement weather, we ate breakfast at the hotel. The sausage waffles and fruit were great. The eggs were either powdered or some kind of paste. They were cold and tasteless, but peppered heavily and microwaved they were edible.  We only ate in once and it was nice to have they option.I will gladly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Several guys from my work stayed in town here for a week for training at swagelok. The rooms were clean. We did not see any indication of pests. The maids cleaned and stocked the rooms each day.I would recommend staying in a room on the back of the hotel.  The first night I stayed in a room at the front and traffic made it difficult to sleep.  The front desk person Monica switched my room without any problem. She was friendly and courteous. The other front desk person Leah was also very helpful. Due to inclement weather, we ate breakfast at the hotel. The sausage waffles and fruit were great. The eggs were either powdered or some kind of paste. They were cold and tasteless, but peppered heavily and microwaved they were edible.  We only ate in once and it was nice to have they option.I will gladly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r196430938-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>196430938</t>
+  </si>
+  <si>
+    <t>03/06/2014</t>
+  </si>
+  <si>
+    <t>Improper Charges and Rude Clerk</t>
+  </si>
+  <si>
+    <t>Stayed from 02/24/2014 and 02/27/2014.  The hotel night clerk made billing errors, did not charge my card properly, and attempted to charge me on check-out the amount that was already billed and paid for on check-in.  The night clerk then called me on the last night of my stay at 3:30 a.m. to report that my card did not accept the additional charges.  He called at 3:30 in the morning.  The hotel staff knew the important nature of my business stay and woke me in the middle of the night anyway.  My credit card company (thank God for their vigilance) declined the improper charges and assured me the mistake was neither on their end or mine.  The night clerk further developed an unpleasant attitude and refused to apologize or even recognize his mistake despite both my credit card company and myself explaining the errors.  After explaining that even if it was a credit card error I still should not have been interrupted in the middle of the night, he remained unapologetic and hostile.
+  The General Manger then contacted me about this matter.  He was also unapologetic and stated that the night clerk was just doing his job.  So caution to other potential guests out there, it is apparently hotel policy to unrepentantly wake guests in the middle of the night for hotel errors.
+  I was highly dissatisfied with the service I received and will likely never stay at a Quality...Stayed from 02/24/2014 and 02/27/2014.  The hotel night clerk made billing errors, did not charge my card properly, and attempted to charge me on check-out the amount that was already billed and paid for on check-in.  The night clerk then called me on the last night of my stay at 3:30 a.m. to report that my card did not accept the additional charges.  He called at 3:30 in the morning.  The hotel staff knew the important nature of my business stay and woke me in the middle of the night anyway.  My credit card company (thank God for their vigilance) declined the improper charges and assured me the mistake was neither on their end or mine.  The night clerk further developed an unpleasant attitude and refused to apologize or even recognize his mistake despite both my credit card company and myself explaining the errors.  After explaining that even if it was a credit card error I still should not have been interrupted in the middle of the night, he remained unapologetic and hostile.  The General Manger then contacted me about this matter.  He was also unapologetic and stated that the night clerk was just doing his job.  So caution to other potential guests out there, it is apparently hotel policy to unrepentantly wake guests in the middle of the night for hotel errors.  I was highly dissatisfied with the service I received and will likely never stay at a Quality Inn again especially the one in La Porte, Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2014</t>
+  </si>
+  <si>
+    <t>Stayed from 02/24/2014 and 02/27/2014.  The hotel night clerk made billing errors, did not charge my card properly, and attempted to charge me on check-out the amount that was already billed and paid for on check-in.  The night clerk then called me on the last night of my stay at 3:30 a.m. to report that my card did not accept the additional charges.  He called at 3:30 in the morning.  The hotel staff knew the important nature of my business stay and woke me in the middle of the night anyway.  My credit card company (thank God for their vigilance) declined the improper charges and assured me the mistake was neither on their end or mine.  The night clerk further developed an unpleasant attitude and refused to apologize or even recognize his mistake despite both my credit card company and myself explaining the errors.  After explaining that even if it was a credit card error I still should not have been interrupted in the middle of the night, he remained unapologetic and hostile.
+  The General Manger then contacted me about this matter.  He was also unapologetic and stated that the night clerk was just doing his job.  So caution to other potential guests out there, it is apparently hotel policy to unrepentantly wake guests in the middle of the night for hotel errors.
+  I was highly dissatisfied with the service I received and will likely never stay at a Quality...Stayed from 02/24/2014 and 02/27/2014.  The hotel night clerk made billing errors, did not charge my card properly, and attempted to charge me on check-out the amount that was already billed and paid for on check-in.  The night clerk then called me on the last night of my stay at 3:30 a.m. to report that my card did not accept the additional charges.  He called at 3:30 in the morning.  The hotel staff knew the important nature of my business stay and woke me in the middle of the night anyway.  My credit card company (thank God for their vigilance) declined the improper charges and assured me the mistake was neither on their end or mine.  The night clerk further developed an unpleasant attitude and refused to apologize or even recognize his mistake despite both my credit card company and myself explaining the errors.  After explaining that even if it was a credit card error I still should not have been interrupted in the middle of the night, he remained unapologetic and hostile.  The General Manger then contacted me about this matter.  He was also unapologetic and stated that the night clerk was just doing his job.  So caution to other potential guests out there, it is apparently hotel policy to unrepentantly wake guests in the middle of the night for hotel errors.  I was highly dissatisfied with the service I received and will likely never stay at a Quality Inn again especially the one in La Porte, Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r192478633-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>192478633</t>
+  </si>
+  <si>
+    <t>01/29/2014</t>
+  </si>
+  <si>
+    <t>Perfect for a pre-cruise stay</t>
+  </si>
+  <si>
+    <t>We stayed here the night before our cruise ship left the Bayport dock (near Houston).  The rooms were large, clean and comfortable.  The included full buffet breakfast was ample and adequate.  The service from Harry, the owner/manager was outstanding!  We were able to leave our car there for free, he drove us the 20 minutes to the port; and we called him when we returned the next week and he came and picked us up and took us back to the hotel.  He was so accommodating and friendly! This hotel is also near the beaches.  So, next time we take a cruise or want to go to a Texas beach, we will definitely stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Samtxa55, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded January 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here the night before our cruise ship left the Bayport dock (near Houston).  The rooms were large, clean and comfortable.  The included full buffet breakfast was ample and adequate.  The service from Harry, the owner/manager was outstanding!  We were able to leave our car there for free, he drove us the 20 minutes to the port; and we called him when we returned the next week and he came and picked us up and took us back to the hotel.  He was so accommodating and friendly! This hotel is also near the beaches.  So, next time we take a cruise or want to go to a Texas beach, we will definitely stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r184879784-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>184879784</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>Pre cruise stay</t>
+  </si>
+  <si>
+    <t>Very convenient pre cruise hotel.    Comfy bed. Room was clean. Breakfast included eggs, sausage, yogurt, danish, fruit and waffles. Indoor Pool and hot tub.  They said we could park there for free while we cruised and round trip shuttle was $15 pp. we had already paid $75 online for cruise terminal parking.  The ship docked late at 10 am so the hotel is letting us wait in the breakfast room until the new 3 pm embarkation time.  Thanks for the hospitality. We will be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Very convenient pre cruise hotel.    Comfy bed. Room was clean. Breakfast included eggs, sausage, yogurt, danish, fruit and waffles. Indoor Pool and hot tub.  They said we could park there for free while we cruised and round trip shuttle was $15 pp. we had already paid $75 online for cruise terminal parking.  The ship docked late at 10 am so the hotel is letting us wait in the breakfast room until the new 3 pm embarkation time.  Thanks for the hospitality. We will be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r175607569-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>175607569</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>good place to stay</t>
+  </si>
+  <si>
+    <t>The hotel was quiet and very nice. The beds are very comfortable . good service we did not get breakfast but once,  had to be at work to early. It was ok . Close to the beach and a lot of restaurants close  would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>The hotel was quiet and very nice. The beds are very comfortable . good service we did not get breakfast but once,  had to be at work to early. It was ok . Close to the beach and a lot of restaurants close  would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r169021677-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>169021677</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Stay during Seabrook Lucky Trails Marathon</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed at this hotel for 2 years in a row during the Seabrook Lucky Trails Marathon.   Staff and facilities are excellent.  We were accomodated with a late checkout Sunday afternoon, allowing us time to clean up after the race.  They also allowed us access to the breakfast early as we had to leave before the normal serving hours.  The pool and hot tub were clean and provided an ideal place to soak the soreness from our joints.Would highly recommend this facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed at this hotel for 2 years in a row during the Seabrook Lucky Trails Marathon.   Staff and facilities are excellent.  We were accomodated with a late checkout Sunday afternoon, allowing us time to clean up after the race.  They also allowed us access to the breakfast early as we had to leave before the normal serving hours.  The pool and hot tub were clean and provided an ideal place to soak the soreness from our joints.Would highly recommend this facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r168621574-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>168621574</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Decent stay outside of Galveston</t>
+  </si>
+  <si>
+    <t>Close to a few local attractions and easy to find off the highway.  When we arrived a couple hours after checking, we went our room and it was still being cleaned. They upgraded us to a different room which was fine.  It seemed cleaned an had your average hotel facilities.  Had to wait a few mins to check out in the morning, but no big deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Close to a few local attractions and easy to find off the highway.  When we arrived a couple hours after checking, we went our room and it was still being cleaned. They upgraded us to a different room which was fine.  It seemed cleaned an had your average hotel facilities.  Had to wait a few mins to check out in the morning, but no big deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r167502744-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>167502744</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>Good nights stay!</t>
+  </si>
+  <si>
+    <t>this is a nice, fairly new hotel. The clerk on duty at out 8 pm check in was very polite, helpful and efficient. He asked what outplays were, offered suggestions of things to do, etc., very pleasant young man.  The room was in good shape, beds clean and comfy, bathroom clean and well stocked. The only room problem was a burned out light bulb...no worries. Breakfast was the normal free hotel fare. Not a bad stay at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>this is a nice, fairly new hotel. The clerk on duty at out 8 pm check in was very polite, helpful and efficient. He asked what outplays were, offered suggestions of things to do, etc., very pleasant young man.  The room was in good shape, beds clean and comfy, bathroom clean and well stocked. The only room problem was a burned out light bulb...no worries. Breakfast was the normal free hotel fare. Not a bad stay at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r162148195-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>162148195</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Mouse in hotel room</t>
+  </si>
+  <si>
+    <t>My husband, 21 month old daughter, my parents and I had the misfortune of staying at the Quality Inn in La Porte, TX on Saturday night, 5/25/13.  None of the appliances in my parents room worked, the card keys didn’t work 90% of the time.  There were no pool towels, the fitness equipment was mostly broken and there were no Dixie cups for water.  Then on Saturday night my husband and I were both kept awake by this constant squeaking noise that we feared was a mouse.  Upon rising on Sunday morning, it was confirmed that there was indeed a mouse trapped on a sticky trap trying frantically to free itself. After we removed our young daughter from the room we called the front desk and asked them to remove the rodent.  We waited 10 minutes and no one came so we called again and told them we were going to bring it to the front if they didn’t send someone down to pick it up.  They begged us not to bring it down out of respect for the other guests.  So we waited for 2 more hours.  The manager had gone home, we missed the continental breakfast.  I had enough and took the mouse down to the front and demanded our rooms be comped.  My parents were in a non-functional room and had to watch my daughter for 2 hours while a live rodent was in our room.  They...My husband, 21 month old daughter, my parents and I had the misfortune of staying at the Quality Inn in La Porte, TX on Saturday night, 5/25/13.  None of the appliances in my parents room worked, the card keys didn’t work 90% of the time.  There were no pool towels, the fitness equipment was mostly broken and there were no Dixie cups for water.  Then on Saturday night my husband and I were both kept awake by this constant squeaking noise that we feared was a mouse.  Upon rising on Sunday morning, it was confirmed that there was indeed a mouse trapped on a sticky trap trying frantically to free itself. After we removed our young daughter from the room we called the front desk and asked them to remove the rodent.  We waited 10 minutes and no one came so we called again and told them we were going to bring it to the front if they didn’t send someone down to pick it up.  They begged us not to bring it down out of respect for the other guests.  So we waited for 2 more hours.  The manager had gone home, we missed the continental breakfast.  I had enough and took the mouse down to the front and demanded our rooms be comped.  My parents were in a non-functional room and had to watch my daughter for 2 hours while a live rodent was in our room.  They offered us a discount, I insisted that BOTH rooms be comped.  At that point the desk clerk phoned the manager who asked us to simply put the mouse in the trash.  As if it were a piece of trash incapable of feeling pain or hunger.  I refused as it was not my job to dispose of their rodents.  He then began ranting, yelling and swearing over the phone.  No one ever apologized for our inconvenience.  They didn’t act embarrassed or concerned in the least.  Finally they agreed to comp both rooms and we loaded up the car.  Then when my husband and parents turned in the keys they charged my parents FULL PRICE for their room.  The audacity of these people is astonishing.  Quality Inn, in its filth, should be shut down.  The name of this hotel is a bold-faced lie.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>My husband, 21 month old daughter, my parents and I had the misfortune of staying at the Quality Inn in La Porte, TX on Saturday night, 5/25/13.  None of the appliances in my parents room worked, the card keys didn’t work 90% of the time.  There were no pool towels, the fitness equipment was mostly broken and there were no Dixie cups for water.  Then on Saturday night my husband and I were both kept awake by this constant squeaking noise that we feared was a mouse.  Upon rising on Sunday morning, it was confirmed that there was indeed a mouse trapped on a sticky trap trying frantically to free itself. After we removed our young daughter from the room we called the front desk and asked them to remove the rodent.  We waited 10 minutes and no one came so we called again and told them we were going to bring it to the front if they didn’t send someone down to pick it up.  They begged us not to bring it down out of respect for the other guests.  So we waited for 2 more hours.  The manager had gone home, we missed the continental breakfast.  I had enough and took the mouse down to the front and demanded our rooms be comped.  My parents were in a non-functional room and had to watch my daughter for 2 hours while a live rodent was in our room.  They...My husband, 21 month old daughter, my parents and I had the misfortune of staying at the Quality Inn in La Porte, TX on Saturday night, 5/25/13.  None of the appliances in my parents room worked, the card keys didn’t work 90% of the time.  There were no pool towels, the fitness equipment was mostly broken and there were no Dixie cups for water.  Then on Saturday night my husband and I were both kept awake by this constant squeaking noise that we feared was a mouse.  Upon rising on Sunday morning, it was confirmed that there was indeed a mouse trapped on a sticky trap trying frantically to free itself. After we removed our young daughter from the room we called the front desk and asked them to remove the rodent.  We waited 10 minutes and no one came so we called again and told them we were going to bring it to the front if they didn’t send someone down to pick it up.  They begged us not to bring it down out of respect for the other guests.  So we waited for 2 more hours.  The manager had gone home, we missed the continental breakfast.  I had enough and took the mouse down to the front and demanded our rooms be comped.  My parents were in a non-functional room and had to watch my daughter for 2 hours while a live rodent was in our room.  They offered us a discount, I insisted that BOTH rooms be comped.  At that point the desk clerk phoned the manager who asked us to simply put the mouse in the trash.  As if it were a piece of trash incapable of feeling pain or hunger.  I refused as it was not my job to dispose of their rodents.  He then began ranting, yelling and swearing over the phone.  No one ever apologized for our inconvenience.  They didn’t act embarrassed or concerned in the least.  Finally they agreed to comp both rooms and we loaded up the car.  Then when my husband and parents turned in the keys they charged my parents FULL PRICE for their room.  The audacity of these people is astonishing.  Quality Inn, in its filth, should be shut down.  The name of this hotel is a bold-faced lie.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r156897703-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>156897703</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>Road Warrior Review</t>
+  </si>
+  <si>
+    <t>Traveling for Business 11 months of a year for 10 Years, I see MANY Hotels, due to Job requirements; not typically in any one location longer than 10 wks (90% of the time, I'm 4-10 Hotels per Month).....
+but whether Your Traveling for Business or pleasure; hope this helps
+Stayed at this Hotel during the Spring Break weeks for Texas; fortunately, I didn't get hammered on rates (unlike some Hotels within 15 mi Radius, trying to milk that Business)....Hotel staff was very accomodating, upon Check-In, duration of Stay as well as Checking Out
+Hotel has multiple Floors....no one particualr floor has a Better View (scenery wasn't a factor), but depending if You are a Day or Night worker, You might want to think about Your Room Location (I am a fanatic about this; whether due to traffic on Main Blvd or construction)
+Hot Breakfast was provided at this Hotel, and selection was too bad....basic, so don't expect IHOP or Denny's type of Meal...but nice that it was not just continental.
+My ROOM WAS BASED ON A SINGLE-KING;
+Room was NOT a closet, Bed was VERY Comfortable, as was the Pillow's Provided....(although I travel with My own)
+Shower Room was good, and bathroom had moveable space....
+I had Fridge/Micro available, and a Grocery Store was fairly close by, as well as accessibility to Highways.....some construction coming from West of Hotel, but over time, this will change....just be aware of what's going...Traveling for Business 11 months of a year for 10 Years, I see MANY Hotels, due to Job requirements; not typically in any one location longer than 10 wks (90% of the time, I'm 4-10 Hotels per Month).....but whether Your Traveling for Business or pleasure; hope this helpsStayed at this Hotel during the Spring Break weeks for Texas; fortunately, I didn't get hammered on rates (unlike some Hotels within 15 mi Radius, trying to milk that Business)....Hotel staff was very accomodating, upon Check-In, duration of Stay as well as Checking OutHotel has multiple Floors....no one particualr floor has a Better View (scenery wasn't a factor), but depending if You are a Day or Night worker, You might want to think about Your Room Location (I am a fanatic about this; whether due to traffic on Main Blvd or construction)Hot Breakfast was provided at this Hotel, and selection was too bad....basic, so don't expect IHOP or Denny's type of Meal...but nice that it was not just continental.My ROOM WAS BASED ON A SINGLE-KING;Room was NOT a closet, Bed was VERY Comfortable, as was the Pillow's Provided....(although I travel with My own)Shower Room was good, and bathroom had moveable space....I had Fridge/Micro available, and a Grocery Store was fairly close by, as well as accessibility to Highways.....some construction coming from West of Hotel, but over time, this will change....just be aware of what's going on around HotelHigher Profile Restaurant's were not far from this Location, usually within 15 min Hwy Drive....so, You are not far from getting to Hi-Traffic Public VenuesENJOY YOUR STAY, Hope this Review HelpsMoreShow less</t>
+  </si>
+  <si>
+    <t>Traveling for Business 11 months of a year for 10 Years, I see MANY Hotels, due to Job requirements; not typically in any one location longer than 10 wks (90% of the time, I'm 4-10 Hotels per Month).....
+but whether Your Traveling for Business or pleasure; hope this helps
+Stayed at this Hotel during the Spring Break weeks for Texas; fortunately, I didn't get hammered on rates (unlike some Hotels within 15 mi Radius, trying to milk that Business)....Hotel staff was very accomodating, upon Check-In, duration of Stay as well as Checking Out
+Hotel has multiple Floors....no one particualr floor has a Better View (scenery wasn't a factor), but depending if You are a Day or Night worker, You might want to think about Your Room Location (I am a fanatic about this; whether due to traffic on Main Blvd or construction)
+Hot Breakfast was provided at this Hotel, and selection was too bad....basic, so don't expect IHOP or Denny's type of Meal...but nice that it was not just continental.
+My ROOM WAS BASED ON A SINGLE-KING;
+Room was NOT a closet, Bed was VERY Comfortable, as was the Pillow's Provided....(although I travel with My own)
+Shower Room was good, and bathroom had moveable space....
+I had Fridge/Micro available, and a Grocery Store was fairly close by, as well as accessibility to Highways.....some construction coming from West of Hotel, but over time, this will change....just be aware of what's going...Traveling for Business 11 months of a year for 10 Years, I see MANY Hotels, due to Job requirements; not typically in any one location longer than 10 wks (90% of the time, I'm 4-10 Hotels per Month).....but whether Your Traveling for Business or pleasure; hope this helpsStayed at this Hotel during the Spring Break weeks for Texas; fortunately, I didn't get hammered on rates (unlike some Hotels within 15 mi Radius, trying to milk that Business)....Hotel staff was very accomodating, upon Check-In, duration of Stay as well as Checking OutHotel has multiple Floors....no one particualr floor has a Better View (scenery wasn't a factor), but depending if You are a Day or Night worker, You might want to think about Your Room Location (I am a fanatic about this; whether due to traffic on Main Blvd or construction)Hot Breakfast was provided at this Hotel, and selection was too bad....basic, so don't expect IHOP or Denny's type of Meal...but nice that it was not just continental.My ROOM WAS BASED ON A SINGLE-KING;Room was NOT a closet, Bed was VERY Comfortable, as was the Pillow's Provided....(although I travel with My own)Shower Room was good, and bathroom had moveable space....I had Fridge/Micro available, and a Grocery Store was fairly close by, as well as accessibility to Highways.....some construction coming from West of Hotel, but over time, this will change....just be aware of what's going on around HotelHigher Profile Restaurant's were not far from this Location, usually within 15 min Hwy Drive....so, You are not far from getting to Hi-Traffic Public VenuesENJOY YOUR STAY, Hope this Review HelpsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r155227423-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>155227423</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>La Porte, TX Quality Inn</t>
+  </si>
+  <si>
+    <t>We had an excellent experience at this hotel.  My wife and I ran the Seabrook Marathon Sunday morning and needed a late checkout to be able to clean up before a long trip home.  Despite being the last weekend of spring break and the hotel being 100% booked both Sunday and Monday, the staff was friendly, helpful and accomodated our request.   They even allowed us an early breakfast Sunday morning as we left for our race before normal breakfast hours.Facility was clean and well maintained.  Indoor pool and spa facilities were wonderful.An excellent experience at this hotel for 2 years in a row as we participate in this area race.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had an excellent experience at this hotel.  My wife and I ran the Seabrook Marathon Sunday morning and needed a late checkout to be able to clean up before a long trip home.  Despite being the last weekend of spring break and the hotel being 100% booked both Sunday and Monday, the staff was friendly, helpful and accomodated our request.   They even allowed us an early breakfast Sunday morning as we left for our race before normal breakfast hours.Facility was clean and well maintained.  Indoor pool and spa facilities were wonderful.An excellent experience at this hotel for 2 years in a row as we participate in this area race.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r152489949-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>152489949</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>Roach infested, Manager yelled at me in front of customers when I complained about the roaches..  No working plug in's in bathroom or part of the room. Again POOR customer service from the Manager... He told me "You use my room"  WHAT?????  are you serious?  Very Very bad experience.  Was bantering and yelling at me because I complained about the roaches, which he came up with a fly swatter and a can of bug spray to try and "take care of".  DO NOT STAY HERE....MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Roach infested, Manager yelled at me in front of customers when I complained about the roaches..  No working plug in's in bathroom or part of the room. Again POOR customer service from the Manager... He told me "You use my room"  WHAT?????  are you serious?  Very Very bad experience.  Was bantering and yelling at me because I complained about the roaches, which he came up with a fly swatter and a can of bug spray to try and "take care of".  DO NOT STAY HERE....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r149765169-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>149765169</t>
+  </si>
+  <si>
+    <t>01/15/2013</t>
+  </si>
+  <si>
+    <t>Above and beyond</t>
+  </si>
+  <si>
+    <t>Our family was returning home when we had an unexpected hospitalization while staying here.  The front desk and security staff were very understanding and went out of their way to make sure our son was safe while my husband and I were at the hospital.  The accommodations were great.  We would stay here again if we need to be in Houston and would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Our family was returning home when we had an unexpected hospitalization while staying here.  The front desk and security staff were very understanding and went out of their way to make sure our son was safe while my husband and I were at the hospital.  The accommodations were great.  We would stay here again if we need to be in Houston and would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r147896549-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>147896549</t>
+  </si>
+  <si>
+    <t>12/22/2012</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Great rates. Feels very safe.  Front desk have always been friendly and helpful. Close enough to anything in south Houston but away from hustle of the city. No restaurants walking distance but there are lots in the area. Have stayed here several times. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great rates. Feels very safe.  Front desk have always been friendly and helpful. Close enough to anything in south Houston but away from hustle of the city. No restaurants walking distance but there are lots in the area. Have stayed here several times. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r145694516-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>145694516</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>Some pros and cons here</t>
+  </si>
+  <si>
+    <t>Pros:Low price, clean, quiet, vent system stays on steadyCons:  Desk people low class and unfriendly, wireless internet does not work at all, the worst tiny pillows ever, windows sealed, and they try the ol' safe charge trick when you check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Pros:Low price, clean, quiet, vent system stays on steadyCons:  Desk people low class and unfriendly, wireless internet does not work at all, the worst tiny pillows ever, windows sealed, and they try the ol' safe charge trick when you check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r145049267-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>145049267</t>
+  </si>
+  <si>
+    <t>11/09/2012</t>
+  </si>
+  <si>
+    <t>Well, it was ok...</t>
+  </si>
+  <si>
+    <t>Well the look of the hotel is beautiful. The rooms look fresh but just wasn't the same feel as I have had at other Quality Inn hotels. The front desk guy was cordial but not overly friendly. There was only one soap to use in both the shower and sink and the tub was dangerously slick. My hubby went down to get soap while i tried to figure out how to stop the blinking on the phone. I called the front desk and no one answered. Yes, again the place is beautiful but there is something missing. Then to top everything off, i was sitting in the room and there goes a roach on the floor. Oh brother, time for bed? I am sure this is just one of those nights where I'm a little tired from the drive and these probably wouldn't bother me normally but here I am. We try to take a cruise once a year and this is a convenient place so we will try it again next year. Will let you know the outcome :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>Well the look of the hotel is beautiful. The rooms look fresh but just wasn't the same feel as I have had at other Quality Inn hotels. The front desk guy was cordial but not overly friendly. There was only one soap to use in both the shower and sink and the tub was dangerously slick. My hubby went down to get soap while i tried to figure out how to stop the blinking on the phone. I called the front desk and no one answered. Yes, again the place is beautiful but there is something missing. Then to top everything off, i was sitting in the room and there goes a roach on the floor. Oh brother, time for bed? I am sure this is just one of those nights where I'm a little tired from the drive and these probably wouldn't bother me normally but here I am. We try to take a cruise once a year and this is a convenient place so we will try it again next year. Will let you know the outcome :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r139425437-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>139425437</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>Very pleased</t>
+  </si>
+  <si>
+    <t>We had a very good stay at this hotel. I have seen complaints about management in other reviews, but we only dealt with front desk staff. They were very pleasant and helpful. We only had one washcloth in our room and they gave us more (and extra coffee pods) with no problems. The room was a little small, but very clean. We were happy with the breakfast. There was plenty of food out. It seemed like the front desk clerk was responsible for restocking the breakfast, but the maintenance worker helped her out. It was definitely a good stay for the price. 2 complaints - the hotel does not put the room rate on the reservation confirmation and they turn the AC completely off between guests. It was VERY hot in the room when arrived.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>We had a very good stay at this hotel. I have seen complaints about management in other reviews, but we only dealt with front desk staff. They were very pleasant and helpful. We only had one washcloth in our room and they gave us more (and extra coffee pods) with no problems. The room was a little small, but very clean. We were happy with the breakfast. There was plenty of food out. It seemed like the front desk clerk was responsible for restocking the breakfast, but the maintenance worker helped her out. It was definitely a good stay for the price. 2 complaints - the hotel does not put the room rate on the reservation confirmation and they turn the AC completely off between guests. It was VERY hot in the room when arrived.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r135842097-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>135842097</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>OK hotel</t>
+  </si>
+  <si>
+    <t>Overall, this hotel was OK. The hotel has a pretty good location, close to NASA and Kemah Boardwalk. The hotel is clean, and the rooms are renovated. They have flat screen TVs, and the bathroom is large. The breakfast, however, was not good. There were a few hot items (some sausage, ham) but other than that there was nothing good. I would probably try somewhere different next time I come to The Kemah/NASA area. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Overall, this hotel was OK. The hotel has a pretty good location, close to NASA and Kemah Boardwalk. The hotel is clean, and the rooms are renovated. They have flat screen TVs, and the bathroom is large. The breakfast, however, was not good. There were a few hot items (some sausage, ham) but other than that there was nothing good. I would probably try somewhere different next time I come to The Kemah/NASA area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r131272683-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>131272683</t>
+  </si>
+  <si>
+    <t>06/04/2012</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>We stayed there over Memorial Day Weekend 2012.  It was clean, the bed and bath were fine.  The common areas, lobby, gym, hallways are kept extremely hot.  One of the reasons we chose this hotel was because it had a gym.  Staying 3 days we wanted to be able to get a little exercise while away from our regular routine.  It was disappointing every piece of equipment in their gym is broken except one treadmill.  They do have a hot breakfast just don't be late.  It closes at 9:30 if you show up at 9:31 the lady at the front desk will grab the plate out of your hand.  They have a breakfast Nazi that makes sure no one takes a bite of food after 9:30.   We were in town for a music festival and didn't spend a lot of time in the hotel so for our purposes it was fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>We stayed there over Memorial Day Weekend 2012.  It was clean, the bed and bath were fine.  The common areas, lobby, gym, hallways are kept extremely hot.  One of the reasons we chose this hotel was because it had a gym.  Staying 3 days we wanted to be able to get a little exercise while away from our regular routine.  It was disappointing every piece of equipment in their gym is broken except one treadmill.  They do have a hot breakfast just don't be late.  It closes at 9:30 if you show up at 9:31 the lady at the front desk will grab the plate out of your hand.  They have a breakfast Nazi that makes sure no one takes a bite of food after 9:30.   We were in town for a music festival and didn't spend a lot of time in the hotel so for our purposes it was fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r131108052-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>131108052</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>Think before you stay!!!</t>
+  </si>
+  <si>
+    <t>I was with a guest that stayed at this place and it was not what I expected for a choice hotel.
+The room was clean but the lobby was dark and HOT, very uncomfortable, the hallways were warm also, the only relief we got was the ac in our room.
+The "manager" was quite rude and didnt seem to have a clue about customer service. He was young and had an attitude.
+Our sleep was great breakfast was being taken care of by the desk staff. I am retired from hotels and I know what requirements are for choice, they have to have their own breakfast attendant not the desk clerk. *Dont know how they get away with that) breakfast was good. But there again it was uncomfortably warm in the lobby and breakfast area. That is horrible to be dressed and fresh for the day and then step into a sauna, before you got outside.
+I would have to rethink staying there again, and I plan on telling others about the stay.There are other places to stay and I think I will recommend that we stay elsewhere, especially in the hot summer months. What is it like in the colder times, No heat!!!
+And our second night was bad, went back to our room after a long day and no towels and we were told they had no more available. What happened then to the towels that we had...I was with a guest that stayed at this place and it was not what I expected for a choice hotel.The room was clean but the lobby was dark and HOT, very uncomfortable, the hallways were warm also, the only relief we got was the ac in our room.The "manager" was quite rude and didnt seem to have a clue about customer service. He was young and had an attitude.Our sleep was great breakfast was being taken care of by the desk staff. I am retired from hotels and I know what requirements are for choice, they have to have their own breakfast attendant not the desk clerk. *Dont know how they get away with that) breakfast was good. But there again it was uncomfortably warm in the lobby and breakfast area. That is horrible to be dressed and fresh for the day and then step into a sauna, before you got outside.I would have to rethink staying there again, and I plan on telling others about the stay.There are other places to stay and I think I will recommend that we stay elsewhere, especially in the hot summer months. What is it like in the colder times, No heat!!!And our second night was bad, went back to our room after a long day and no towels and we were told they had no more available. What happened then to the towels that we had in our room? Couldn't they be washed and returned? Seems to me there is a need for new management, the staff is friendly and eager but the management doesnt seem to be. I do plan to call choice hotels corp office and complain.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I was with a guest that stayed at this place and it was not what I expected for a choice hotel.
+The room was clean but the lobby was dark and HOT, very uncomfortable, the hallways were warm also, the only relief we got was the ac in our room.
+The "manager" was quite rude and didnt seem to have a clue about customer service. He was young and had an attitude.
+Our sleep was great breakfast was being taken care of by the desk staff. I am retired from hotels and I know what requirements are for choice, they have to have their own breakfast attendant not the desk clerk. *Dont know how they get away with that) breakfast was good. But there again it was uncomfortably warm in the lobby and breakfast area. That is horrible to be dressed and fresh for the day and then step into a sauna, before you got outside.
+I would have to rethink staying there again, and I plan on telling others about the stay.There are other places to stay and I think I will recommend that we stay elsewhere, especially in the hot summer months. What is it like in the colder times, No heat!!!
+And our second night was bad, went back to our room after a long day and no towels and we were told they had no more available. What happened then to the towels that we had...I was with a guest that stayed at this place and it was not what I expected for a choice hotel.The room was clean but the lobby was dark and HOT, very uncomfortable, the hallways were warm also, the only relief we got was the ac in our room.The "manager" was quite rude and didnt seem to have a clue about customer service. He was young and had an attitude.Our sleep was great breakfast was being taken care of by the desk staff. I am retired from hotels and I know what requirements are for choice, they have to have their own breakfast attendant not the desk clerk. *Dont know how they get away with that) breakfast was good. But there again it was uncomfortably warm in the lobby and breakfast area. That is horrible to be dressed and fresh for the day and then step into a sauna, before you got outside.I would have to rethink staying there again, and I plan on telling others about the stay.There are other places to stay and I think I will recommend that we stay elsewhere, especially in the hot summer months. What is it like in the colder times, No heat!!!And our second night was bad, went back to our room after a long day and no towels and we were told they had no more available. What happened then to the towels that we had in our room? Couldn't they be washed and returned? Seems to me there is a need for new management, the staff is friendly and eager but the management doesnt seem to be. I do plan to call choice hotels corp office and complain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r125713025-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>125713025</t>
+  </si>
+  <si>
+    <t>03/06/2012</t>
+  </si>
+  <si>
+    <t>Great Value Hotel – Clean Rooms, and Nice Staff</t>
+  </si>
+  <si>
+    <t>I chose this particular hotel due to being near both Kemah Boardwalk and Baytown where my family lives, and in the end I am happy we did. The staff was great in helping me get to Baytown which was very close on Highway 146, where the hotel was located. Kids loved the indoor pool; it kept then busy while I got some sleep from the drive over here. The room condition was really good no complaints and there was wide selection of channels on TV (more than I get back at home). Anoter thing that I liked about this hotel is that they are NOT pet friendly, which is good for people who are allergic to pet hair and what not. The breakfast was decent, it had all you could ask for and then some, coffee and a muffin just does for me in the morning. At night we were recommeded a good mexican resturant (wish I remembered name), by the staff and was good way to catch up with the family. Only thing that got wrong was when we go to Kemah it started to rain, and had to go the next day on Sunday. I would recommend this hotel especially for families that are on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I chose this particular hotel due to being near both Kemah Boardwalk and Baytown where my family lives, and in the end I am happy we did. The staff was great in helping me get to Baytown which was very close on Highway 146, where the hotel was located. Kids loved the indoor pool; it kept then busy while I got some sleep from the drive over here. The room condition was really good no complaints and there was wide selection of channels on TV (more than I get back at home). Anoter thing that I liked about this hotel is that they are NOT pet friendly, which is good for people who are allergic to pet hair and what not. The breakfast was decent, it had all you could ask for and then some, coffee and a muffin just does for me in the morning. At night we were recommeded a good mexican resturant (wish I remembered name), by the staff and was good way to catch up with the family. Only thing that got wrong was when we go to Kemah it started to rain, and had to go the next day on Sunday. I would recommend this hotel especially for families that are on a budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r125187003-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>125187003</t>
+  </si>
+  <si>
+    <t>02/25/2012</t>
+  </si>
+  <si>
+    <t>Rooms are excellent but "Stingy" in putting out breakfast.</t>
+  </si>
+  <si>
+    <t>Rooms were excellent, which was very important. Definitely I will go back because of the excellent room condition. Front desk employee is excellent as well. Only complain is they do not turn on the chandelier light ( even though it is dark or night time) which they have in Lobby and also they turn on the front desk light after the customer walks in the lobby.  I am sure the lobby will look so beautiful just by turning the chandelier light on. Also at breakfast bar they do not have anything of enough. It seems like you are getting the last piece of that item or they hardly fill up the item, anytime you go at the breakfast bar it seems you are late and nothing is left for you. I also notice few guest complain about this. It seems owner is  " Stingy" Again definitely I will go back because of excellent room condition and newer hotel itself, and excellent front desk person.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Rooms were excellent, which was very important. Definitely I will go back because of the excellent room condition. Front desk employee is excellent as well. Only complain is they do not turn on the chandelier light ( even though it is dark or night time) which they have in Lobby and also they turn on the front desk light after the customer walks in the lobby.  I am sure the lobby will look so beautiful just by turning the chandelier light on. Also at breakfast bar they do not have anything of enough. It seems like you are getting the last piece of that item or they hardly fill up the item, anytime you go at the breakfast bar it seems you are late and nothing is left for you. I also notice few guest complain about this. It seems owner is  " Stingy" Again definitely I will go back because of excellent room condition and newer hotel itself, and excellent front desk person.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r125068674-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>125068674</t>
+  </si>
+  <si>
+    <t>02/23/2012</t>
+  </si>
+  <si>
+    <t>Great Stay ~ Excellent Staff, Comfy Room ~ GREAT Price!</t>
+  </si>
+  <si>
+    <t>We came to visit family &amp; ended up needing an extra bed because of an emergency situation. Staff were wonderful &amp; took care of our needs in a stellar manner. This hotel, with an inside pool, by the way ~ a great treat for winter, was clean &amp; tidy, had a very comfortable bed. Can't complain about anything &amp; will stay again when we come back down to visitMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Samtxa55, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded February 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2012</t>
+  </si>
+  <si>
+    <t>We came to visit family &amp; ended up needing an extra bed because of an emergency situation. Staff were wonderful &amp; took care of our needs in a stellar manner. This hotel, with an inside pool, by the way ~ a great treat for winter, was clean &amp; tidy, had a very comfortable bed. Can't complain about anything &amp; will stay again when we come back down to visitMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r121605802-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>121605802</t>
+  </si>
+  <si>
+    <t>12/10/2011</t>
+  </si>
+  <si>
+    <t>Nice Hotel, with comfy rooms</t>
+  </si>
+  <si>
+    <t>My girlfriend and I came down to meet her family, and being a Choice member we chose this place. The hotel looks very well in shape at arrival.  The check in process was a fast one, and the rooms were great and very clean, which is very important for me. The room came with a 32 inch screen, and very comfortable bed that really help me sleep even with my bad back, It was home away from home. The breakfast was pretty decent, I only got a cup of coffee, but my girlfriend took advantage of the make-your own waffles. For the 3 days we were here it was a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>My girlfriend and I came down to meet her family, and being a Choice member we chose this place. The hotel looks very well in shape at arrival.  The check in process was a fast one, and the rooms were great and very clean, which is very important for me. The room came with a 32 inch screen, and very comfortable bed that really help me sleep even with my bad back, It was home away from home. The breakfast was pretty decent, I only got a cup of coffee, but my girlfriend took advantage of the make-your own waffles. For the 3 days we were here it was a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r120957152-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>120957152</t>
+  </si>
+  <si>
+    <t>11/23/2011</t>
+  </si>
+  <si>
+    <t>Quality Inn and Suites - Really enjoyed our stay</t>
+  </si>
+  <si>
+    <t>My family was looking for a hotel near Kemah Boardwalk, and we came across this hotel. For the price and value, it looked like taking a shot at since it looked fairly new. At check in, we were check in with greeting smiles and a helpful attitude from the staff. The room we reserved was a double queen, and it was thoroughly clean and very well decorated. The TV was pretty new, and the bed were really comfy. Kids enjoyed a short swim in the indoor pool before we headed out to Kemah, where we had a fun time. It was not until the staff that informed us that NASA space center was also near, and the kids especially had a Blast. We were in such a hurry the next morning we never got to try the complimentary breakfast they provide, the morning before we slept in and also missed it. But still all in all we had a nice stay.Thank you Quality Inn and SuitesMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>My family was looking for a hotel near Kemah Boardwalk, and we came across this hotel. For the price and value, it looked like taking a shot at since it looked fairly new. At check in, we were check in with greeting smiles and a helpful attitude from the staff. The room we reserved was a double queen, and it was thoroughly clean and very well decorated. The TV was pretty new, and the bed were really comfy. Kids enjoyed a short swim in the indoor pool before we headed out to Kemah, where we had a fun time. It was not until the staff that informed us that NASA space center was also near, and the kids especially had a Blast. We were in such a hurry the next morning we never got to try the complimentary breakfast they provide, the morning before we slept in and also missed it. But still all in all we had a nice stay.Thank you Quality Inn and SuitesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r120005036-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>120005036</t>
+  </si>
+  <si>
+    <t>11/01/2011</t>
+  </si>
+  <si>
+    <t>Best hotel my family and I have stayed at in a while!</t>
+  </si>
+  <si>
+    <t>Me and my family live in florida and come down here every year or so to visit my husbands family. I'm glad we found this hotel, we will now use this one every time. Our stay was incredible! Extremely good rates and the hotel is gorgeous. Extremely clean, not to mention how nice the decor is. Our kiddos absolutely loved the indoor swimming area and my husband couldn't get enough of the happy hour they offer there. The staff was more than helpful and the breakfast was spectacular! I give quality inn in la Porte Texas a 10!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my family live in florida and come down here every year or so to visit my husbands family. I'm glad we found this hotel, we will now use this one every time. Our stay was incredible! Extremely good rates and the hotel is gorgeous. Extremely clean, not to mention how nice the decor is. Our kiddos absolutely loved the indoor swimming area and my husband couldn't get enough of the happy hour they offer there. The staff was more than helpful and the breakfast was spectacular! I give quality inn in la Porte Texas a 10!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r115557829-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>115557829</t>
+  </si>
+  <si>
+    <t>07/19/2011</t>
+  </si>
+  <si>
+    <t>Great Place To Stay! :)</t>
+  </si>
+  <si>
+    <t>This hotel is the best hotel I have been To yet! Hotel Staff are very helpful, they will help you with everything you need. Rooms are clean. Breakfast is good. Happy Hour is awesome(free beer &amp; popcorn). I will definitely be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is the best hotel I have been To yet! Hotel Staff are very helpful, they will help you with everything you need. Rooms are clean. Breakfast is good. Happy Hour is awesome(free beer &amp; popcorn). I will definitely be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r114658031-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>114658031</t>
+  </si>
+  <si>
+    <t>06/22/2011</t>
+  </si>
+  <si>
+    <t>Would Absolutely Stay Here Again!</t>
+  </si>
+  <si>
+    <t>I am very pleased with the beautiful rooms, comfy and clean. The staff has been superb, friendly and all around helpful! Great room rate, indoor pool/spa and workout room. The staff even helped with our luggage when the elevator was out due to repair, but it was working the next day. Oh, they have a hot breakfast.  Though I have not tried that yet, but my husband seemed to like it. I would definelty stay here again!  You don't usually find a room of this caliber for the price and again Sam, Melissa and the other's here made me feel at home and made sure my stay was pleasant.  Thank you!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>I am very pleased with the beautiful rooms, comfy and clean. The staff has been superb, friendly and all around helpful! Great room rate, indoor pool/spa and workout room. The staff even helped with our luggage when the elevator was out due to repair, but it was working the next day. Oh, they have a hot breakfast.  Though I have not tried that yet, but my husband seemed to like it. I would definelty stay here again!  You don't usually find a room of this caliber for the price and again Sam, Melissa and the other's here made me feel at home and made sure my stay was pleasant.  Thank you!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r113249026-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>113249026</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>The service was GREAT and the accomodations very nice!</t>
+  </si>
+  <si>
+    <t>Quality service and room for a good price.   AJ at the front desk was very helpful and friendly.  During the happy hour, they serve free beer and popcorn which was enough to spark a few fun conversations with other guests and make for a fun and relaxing evening after a busy day of work on the road.  The gym was small but had everything I needed for a good workout.  Next time, I'll bring a swimsuit so I can take advantage of the beautiful pool that looked very inviting.Thanks for everything, AJ!MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality service and room for a good price.   AJ at the front desk was very helpful and friendly.  During the happy hour, they serve free beer and popcorn which was enough to spark a few fun conversations with other guests and make for a fun and relaxing evening after a busy day of work on the road.  The gym was small but had everything I needed for a good workout.  Next time, I'll bring a swimsuit so I can take advantage of the beautiful pool that looked very inviting.Thanks for everything, AJ!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1882,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1914,4017 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>112</v>
+      </c>
+      <c r="X13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>133</v>
+      </c>
+      <c r="X14" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>133</v>
+      </c>
+      <c r="X15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>149</v>
+      </c>
+      <c r="X16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>158</v>
+      </c>
+      <c r="X17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>166</v>
+      </c>
+      <c r="X18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>174</v>
+      </c>
+      <c r="X19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>183</v>
+      </c>
+      <c r="X20" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>183</v>
+      </c>
+      <c r="X21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" t="s">
+        <v>198</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>183</v>
+      </c>
+      <c r="X22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>206</v>
+      </c>
+      <c r="X23" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>183</v>
+      </c>
+      <c r="X24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>221</v>
+      </c>
+      <c r="O25" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>222</v>
+      </c>
+      <c r="X25" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>230</v>
+      </c>
+      <c r="X26" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s">
+        <v>237</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>230</v>
+      </c>
+      <c r="X27" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>240</v>
+      </c>
+      <c r="J28" t="s">
+        <v>241</v>
+      </c>
+      <c r="K28" t="s">
+        <v>242</v>
+      </c>
+      <c r="L28" t="s">
+        <v>243</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>244</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>222</v>
+      </c>
+      <c r="X28" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" t="s">
+        <v>252</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>253</v>
+      </c>
+      <c r="X29" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>260</v>
+      </c>
+      <c r="O30" t="s">
+        <v>141</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>253</v>
+      </c>
+      <c r="X30" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" t="s">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s">
+        <v>266</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>267</v>
+      </c>
+      <c r="O31" t="s">
+        <v>141</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>268</v>
+      </c>
+      <c r="X31" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>260</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>276</v>
+      </c>
+      <c r="X32" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>280</v>
+      </c>
+      <c r="J33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s">
+        <v>282</v>
+      </c>
+      <c r="L33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>260</v>
+      </c>
+      <c r="O33" t="s">
+        <v>252</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>276</v>
+      </c>
+      <c r="X33" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>290</v>
+      </c>
+      <c r="O34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>291</v>
+      </c>
+      <c r="X34" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>294</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J35" t="s">
+        <v>296</v>
+      </c>
+      <c r="K35" t="s">
+        <v>297</v>
+      </c>
+      <c r="L35" t="s">
+        <v>298</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>299</v>
+      </c>
+      <c r="O35" t="s">
+        <v>252</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>300</v>
+      </c>
+      <c r="X35" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>304</v>
+      </c>
+      <c r="J36" t="s">
+        <v>305</v>
+      </c>
+      <c r="K36" t="s">
+        <v>306</v>
+      </c>
+      <c r="L36" t="s">
+        <v>307</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>308</v>
+      </c>
+      <c r="O36" t="s">
+        <v>141</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>158</v>
+      </c>
+      <c r="X36" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>311</v>
+      </c>
+      <c r="J37" t="s">
+        <v>312</v>
+      </c>
+      <c r="K37" t="s">
+        <v>313</v>
+      </c>
+      <c r="L37" t="s">
+        <v>314</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>315</v>
+      </c>
+      <c r="O37" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>158</v>
+      </c>
+      <c r="X37" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>322</v>
+      </c>
+      <c r="O38" t="s">
+        <v>141</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>158</v>
+      </c>
+      <c r="X38" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>325</v>
+      </c>
+      <c r="J39" t="s">
+        <v>326</v>
+      </c>
+      <c r="K39" t="s">
+        <v>327</v>
+      </c>
+      <c r="L39" t="s">
+        <v>328</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>329</v>
+      </c>
+      <c r="O39" t="s">
+        <v>252</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>158</v>
+      </c>
+      <c r="X39" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>331</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>332</v>
+      </c>
+      <c r="J40" t="s">
+        <v>333</v>
+      </c>
+      <c r="K40" t="s">
+        <v>334</v>
+      </c>
+      <c r="L40" t="s">
+        <v>335</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>329</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>158</v>
+      </c>
+      <c r="X40" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>337</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>338</v>
+      </c>
+      <c r="J41" t="s">
+        <v>339</v>
+      </c>
+      <c r="K41" t="s">
+        <v>340</v>
+      </c>
+      <c r="L41" t="s">
+        <v>341</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>342</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>253</v>
+      </c>
+      <c r="X41" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>344</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>345</v>
+      </c>
+      <c r="J42" t="s">
+        <v>346</v>
+      </c>
+      <c r="K42" t="s">
+        <v>347</v>
+      </c>
+      <c r="L42" t="s">
+        <v>348</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>322</v>
+      </c>
+      <c r="O42" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>158</v>
+      </c>
+      <c r="X42" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>350</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>351</v>
+      </c>
+      <c r="J43" t="s">
+        <v>352</v>
+      </c>
+      <c r="K43" t="s">
+        <v>353</v>
+      </c>
+      <c r="L43" t="s">
+        <v>354</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>322</v>
+      </c>
+      <c r="O43" t="s">
+        <v>141</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>158</v>
+      </c>
+      <c r="X43" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>356</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>357</v>
+      </c>
+      <c r="J44" t="s">
+        <v>358</v>
+      </c>
+      <c r="K44" t="s">
+        <v>359</v>
+      </c>
+      <c r="L44" t="s">
+        <v>360</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>361</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>253</v>
+      </c>
+      <c r="X44" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>363</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>364</v>
+      </c>
+      <c r="J45" t="s">
+        <v>365</v>
+      </c>
+      <c r="K45" t="s">
+        <v>366</v>
+      </c>
+      <c r="L45" t="s">
+        <v>367</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>368</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>158</v>
+      </c>
+      <c r="X45" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>370</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>371</v>
+      </c>
+      <c r="J46" t="s">
+        <v>372</v>
+      </c>
+      <c r="K46" t="s">
+        <v>373</v>
+      </c>
+      <c r="L46" t="s">
+        <v>374</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>158</v>
+      </c>
+      <c r="X46" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>376</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>377</v>
+      </c>
+      <c r="J47" t="s">
+        <v>378</v>
+      </c>
+      <c r="K47" t="s">
+        <v>379</v>
+      </c>
+      <c r="L47" t="s">
+        <v>380</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>381</v>
+      </c>
+      <c r="O47" t="s">
+        <v>77</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>253</v>
+      </c>
+      <c r="X47" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" t="s">
+        <v>385</v>
+      </c>
+      <c r="K48" t="s">
+        <v>386</v>
+      </c>
+      <c r="L48" t="s">
+        <v>387</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>158</v>
+      </c>
+      <c r="X48" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>389</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>390</v>
+      </c>
+      <c r="J49" t="s">
+        <v>391</v>
+      </c>
+      <c r="K49" t="s">
+        <v>392</v>
+      </c>
+      <c r="L49" t="s">
+        <v>393</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>394</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>158</v>
+      </c>
+      <c r="X49" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>396</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>397</v>
+      </c>
+      <c r="J50" t="s">
+        <v>398</v>
+      </c>
+      <c r="K50" t="s">
+        <v>399</v>
+      </c>
+      <c r="L50" t="s">
+        <v>400</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>401</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>158</v>
+      </c>
+      <c r="X50" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>403</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>404</v>
+      </c>
+      <c r="J51" t="s">
+        <v>405</v>
+      </c>
+      <c r="K51" t="s">
+        <v>406</v>
+      </c>
+      <c r="L51" t="s">
+        <v>407</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>408</v>
+      </c>
+      <c r="O51" t="s">
+        <v>141</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>253</v>
+      </c>
+      <c r="X51" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>410</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>411</v>
+      </c>
+      <c r="J52" t="s">
+        <v>412</v>
+      </c>
+      <c r="K52" t="s">
+        <v>413</v>
+      </c>
+      <c r="L52" t="s">
+        <v>414</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>415</v>
+      </c>
+      <c r="O52" t="s">
+        <v>252</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>253</v>
+      </c>
+      <c r="X52" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>417</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>418</v>
+      </c>
+      <c r="J53" t="s">
+        <v>419</v>
+      </c>
+      <c r="K53" t="s">
+        <v>420</v>
+      </c>
+      <c r="L53" t="s">
+        <v>421</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>422</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>158</v>
+      </c>
+      <c r="X53" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>424</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>425</v>
+      </c>
+      <c r="J54" t="s">
+        <v>426</v>
+      </c>
+      <c r="K54" t="s">
+        <v>427</v>
+      </c>
+      <c r="L54" t="s">
+        <v>428</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>429</v>
+      </c>
+      <c r="O54" t="s">
+        <v>77</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>158</v>
+      </c>
+      <c r="X54" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>431</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>432</v>
+      </c>
+      <c r="J55" t="s">
+        <v>433</v>
+      </c>
+      <c r="K55" t="s">
+        <v>434</v>
+      </c>
+      <c r="L55" t="s">
+        <v>435</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>436</v>
+      </c>
+      <c r="O55" t="s">
+        <v>141</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>437</v>
+      </c>
+      <c r="X55" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>440</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>441</v>
+      </c>
+      <c r="J56" t="s">
+        <v>442</v>
+      </c>
+      <c r="K56" t="s">
+        <v>443</v>
+      </c>
+      <c r="L56" t="s">
+        <v>444</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>445</v>
+      </c>
+      <c r="O56" t="s">
+        <v>141</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>158</v>
+      </c>
+      <c r="X56" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>447</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>448</v>
+      </c>
+      <c r="J57" t="s">
+        <v>449</v>
+      </c>
+      <c r="K57" t="s">
+        <v>450</v>
+      </c>
+      <c r="L57" t="s">
+        <v>451</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>452</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>158</v>
+      </c>
+      <c r="X57" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>454</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>455</v>
+      </c>
+      <c r="J58" t="s">
+        <v>456</v>
+      </c>
+      <c r="K58" t="s">
+        <v>457</v>
+      </c>
+      <c r="L58" t="s">
+        <v>458</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>158</v>
+      </c>
+      <c r="X58" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>460</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>461</v>
+      </c>
+      <c r="J59" t="s">
+        <v>462</v>
+      </c>
+      <c r="K59" t="s">
+        <v>463</v>
+      </c>
+      <c r="L59" t="s">
+        <v>464</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>465</v>
+      </c>
+      <c r="X59" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>468</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>469</v>
+      </c>
+      <c r="J60" t="s">
+        <v>470</v>
+      </c>
+      <c r="K60" t="s">
+        <v>471</v>
+      </c>
+      <c r="L60" t="s">
+        <v>472</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>473</v>
+      </c>
+      <c r="O60" t="s">
+        <v>77</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>158</v>
+      </c>
+      <c r="X60" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>475</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>476</v>
+      </c>
+      <c r="J61" t="s">
+        <v>477</v>
+      </c>
+      <c r="K61" t="s">
+        <v>478</v>
+      </c>
+      <c r="L61" t="s">
+        <v>479</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>473</v>
+      </c>
+      <c r="O61" t="s">
+        <v>77</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>158</v>
+      </c>
+      <c r="X61" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_516.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_516.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="756">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r580505878-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>1675659</t>
+  </si>
+  <si>
+    <t>580505878</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Best to tell of the problems as there are few good ones.1. Receptionist had no idea of her locality.2. Room was smelly. All others offered the same.3. Hotel is in the middle of nowhere.4. Carpet in room stained.5. Pool area is dangerous. Floor uneven with sharp edges.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r569794185-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>569794185</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Great night's stay!</t>
+  </si>
+  <si>
+    <t>From check in to check out we thoroughly enjoyed our stay. Upon check in, the front desk staff was super nice and very accomdating. The room was very clean and the wifi worked well. At around 12 am, the people in the room next to us were playing music super loud. The man workinh at the front desk was quick on the draw to handle the situation. In the morning, the housekeepers did not knock on the doors super early so we were able to sleep in til 9:30 am. Parking is great and there are stores close by. Very quiet, we were on the side away from the highway.We will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>From check in to check out we thoroughly enjoyed our stay. Upon check in, the front desk staff was super nice and very accomdating. The room was very clean and the wifi worked well. At around 12 am, the people in the room next to us were playing music super loud. The man workinh at the front desk was quick on the draw to handle the situation. In the morning, the housekeepers did not knock on the doors super early so we were able to sleep in til 9:30 am. Parking is great and there are stores close by. Very quiet, we were on the side away from the highway.We will stay here again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r563961078-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
-    <t>56110</t>
-  </si>
-  <si>
-    <t>1675659</t>
-  </si>
-  <si>
     <t>563961078</t>
   </si>
   <si>
@@ -171,12 +213,6 @@
     <t xml:space="preserve">Room was nice n comfy. Had 2 queen beds, check in n out easy. Very nice breakfast. Of  course the Texas shaped waffle was a big hit. Eggs, sausage, cereal,yogurt, fruit, bagels ,danish, a nice variety of breakfast. Good location to nasa, kehma, Houston. </t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r549059023-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -216,6 +252,48 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r535866556-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>535866556</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>wonderful experience!</t>
+  </si>
+  <si>
+    <t>I travel often for business and I must say this property was a wonderful surprise!  A clean, quiet room.  Hot breakfast which was always plentiful.I must commend JESSICA at the front desk.  It is not often I come in contact with a front desk employee that deserves a 5star rating.  Always a smile...even at 3am!  Thank you Jessica for making my stay special.I see a poster that a "big update" is in the near future...I can't see that anything needs an update but I'm certain it will be amazing!   I will look forward to my next stay at the la Porte quality inn!</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r528556693-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>528556693</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>MAYBE I JUST GOT A BAD ROOM</t>
+  </si>
+  <si>
+    <t>I do not know if this hotel was effected by Hurricane Harvey, but my experience was far less than ideal.  I noticed an unpleasant aroma immediately upon entering the lobby.  Upon opening the door to my room, I was hit with hot, humid air.  The HVAC unit in my room could not keep the air as cool and dry as the air in the hall.  The air coming out of the HVAC unit also smelled musty.  The foot stool to the chair was stained.  Mold is growing on the bath wall due to a leak in the shower.  The coffeemaker was in bad shape and did not work.  I stay at Choice Hotels often and have generally had good experiences.  Should I ever return to LaPorte, I will make other lodging arrangements.  Not horrible, but I expected more out of a Quality Inn.  The WiFi speed and connectivity were both excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>I do not know if this hotel was effected by Hurricane Harvey, but my experience was far less than ideal.  I noticed an unpleasant aroma immediately upon entering the lobby.  Upon opening the door to my room, I was hit with hot, humid air.  The HVAC unit in my room could not keep the air as cool and dry as the air in the hall.  The air coming out of the HVAC unit also smelled musty.  The foot stool to the chair was stained.  Mold is growing on the bath wall due to a leak in the shower.  The coffeemaker was in bad shape and did not work.  I stay at Choice Hotels often and have generally had good experiences.  Should I ever return to LaPorte, I will make other lodging arrangements.  Not horrible, but I expected more out of a Quality Inn.  The WiFi speed and connectivity were both excellent.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r506344631-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -249,9 +327,6 @@
     <t xml:space="preserve">I had a good experience while I stayed at the hotel. I only expend one night but everything was the way you will expect for a business class hotel. Rooms confortable, they offer wifi and complementary breakfast. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r491762387-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -270,6 +345,57 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r484629528-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>484629528</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome Home </t>
+  </si>
+  <si>
+    <t>I could not have asked for a better Experience!! The rooms were excellent, breakfast was spectacular and the staff was phenomenal! Especially Jessica who worked the desk at night and Amanda who came in mornings! We had a very unexpected, unpleasant, unpredictable, uncomfortable and difficult to deal with incident that happened! It was something that didn't even happen at the hotel or on the property, but it was discovered at the hotel! In all honesty Jessica didn't have to do, say, help or get involved at all for any reason, but thank God she did swiftly and safely to insure our safety! I wouldn't have wanted anybody else to be the one working then Jessica! As her shift came to an end she stayed long after her shift making sure her relief Amanda was undoubtedly, and completely brought up to par on our situation. She made sure as to pass the tourch insuring our stay was as comfortable and as pleasant as any single hotel stay could possibly be! We truly did feel like VIP thanks to the staff but particularly and especially Jessica and Amanda! The new management had never even met these two angles not even knowing the very kind, caring, involved, and special employees they had. Well now they do and as I said EVERY ESTABLISHMENT out there like this one ABSOULTLY NEEDS A Jessica and Amanda on there team! Thanks again girls for everything I could...I could not have asked for a better Experience!! The rooms were excellent, breakfast was spectacular and the staff was phenomenal! Especially Jessica who worked the desk at night and Amanda who came in mornings! We had a very unexpected, unpleasant, unpredictable, uncomfortable and difficult to deal with incident that happened! It was something that didn't even happen at the hotel or on the property, but it was discovered at the hotel! In all honesty Jessica didn't have to do, say, help or get involved at all for any reason, but thank God she did swiftly and safely to insure our safety! I wouldn't have wanted anybody else to be the one working then Jessica! As her shift came to an end she stayed long after her shift making sure her relief Amanda was undoubtedly, and completely brought up to par on our situation. She made sure as to pass the tourch insuring our stay was as comfortable and as pleasant as any single hotel stay could possibly be! We truly did feel like VIP thanks to the staff but particularly and especially Jessica and Amanda! The new management had never even met these two angles not even knowing the very kind, caring, involved, and special employees they had. Well now they do and as I said EVERY ESTABLISHMENT out there like this one ABSOULTLY NEEDS A Jessica and Amanda on there team! Thanks again girls for everything I could never thank you enough! This is the place is the definition of a home away from home!! So welcome home!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>I could not have asked for a better Experience!! The rooms were excellent, breakfast was spectacular and the staff was phenomenal! Especially Jessica who worked the desk at night and Amanda who came in mornings! We had a very unexpected, unpleasant, unpredictable, uncomfortable and difficult to deal with incident that happened! It was something that didn't even happen at the hotel or on the property, but it was discovered at the hotel! In all honesty Jessica didn't have to do, say, help or get involved at all for any reason, but thank God she did swiftly and safely to insure our safety! I wouldn't have wanted anybody else to be the one working then Jessica! As her shift came to an end she stayed long after her shift making sure her relief Amanda was undoubtedly, and completely brought up to par on our situation. She made sure as to pass the tourch insuring our stay was as comfortable and as pleasant as any single hotel stay could possibly be! We truly did feel like VIP thanks to the staff but particularly and especially Jessica and Amanda! The new management had never even met these two angles not even knowing the very kind, caring, involved, and special employees they had. Well now they do and as I said EVERY ESTABLISHMENT out there like this one ABSOULTLY NEEDS A Jessica and Amanda on there team! Thanks again girls for everything I could...I could not have asked for a better Experience!! The rooms were excellent, breakfast was spectacular and the staff was phenomenal! Especially Jessica who worked the desk at night and Amanda who came in mornings! We had a very unexpected, unpleasant, unpredictable, uncomfortable and difficult to deal with incident that happened! It was something that didn't even happen at the hotel or on the property, but it was discovered at the hotel! In all honesty Jessica didn't have to do, say, help or get involved at all for any reason, but thank God she did swiftly and safely to insure our safety! I wouldn't have wanted anybody else to be the one working then Jessica! As her shift came to an end she stayed long after her shift making sure her relief Amanda was undoubtedly, and completely brought up to par on our situation. She made sure as to pass the tourch insuring our stay was as comfortable and as pleasant as any single hotel stay could possibly be! We truly did feel like VIP thanks to the staff but particularly and especially Jessica and Amanda! The new management had never even met these two angles not even knowing the very kind, caring, involved, and special employees they had. Well now they do and as I said EVERY ESTABLISHMENT out there like this one ABSOULTLY NEEDS A Jessica and Amanda on there team! Thanks again girls for everything I could never thank you enough! This is the place is the definition of a home away from home!! So welcome home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r427872526-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>427872526</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Convenient and quiet location, close to several area attractions. Attractive property and nice interior. I have stayed here a few times now and don't really have much negative to say about this hotel. Decent complimentary breakfast and indoor pool are a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Convenient and quiet location, close to several area attractions. Attractive property and nice interior. I have stayed here a few times now and don't really have much negative to say about this hotel. Decent complimentary breakfast and indoor pool are a plus.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r415286819-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -306,9 +432,6 @@
     <t>Samtxa55, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 28, 2017</t>
   </si>
   <si>
-    <t>Responded April 28, 2017</t>
-  </si>
-  <si>
     <t>Staff was very kind and courteous when we arrived.  Ms. Anna explained where everything was located in the hotel, gave us breakfast times, etc.  Rooms were neat and clean.  Bed very comfortable.  We were not too far from places to eat and shop.  Good location to drive to both Galveston and Houston.  The indoor pool was a plus as we were traveling with kids and they LOVED it.  The only problem we had was that someone wasted a whole soda on one of the beds and there was no housekeeping staff on location.  It took the front desk a while to locate linen and bedding and we had to go back down to retrieve it and make our own bed.   The breakfast is very good and some of the morning staff was very nice and friendly, while others were not.  Over all, a very pleasant hotel with nice staff, comfortable beds, and good location to eateries and other attractions.More</t>
   </si>
   <si>
@@ -339,6 +462,48 @@
     <t>I stayed here for work long term recently. It was ok, but I wouldn't stay here on vacation.The people who run the hotel are nice but there are a few things that just aren't up to my standards. The carpeting is very dirty and smells badly in the common areas. They also keep it very hot in the common areas. The only washer and dryer they have available for guests to use doesn't work well and smells. Housekeeping is on the slightly on the lacking side also. However, they have very good weekly rates if you are in the area working.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r389269383-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>389269383</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Great location for visit to Space Center</t>
+  </si>
+  <si>
+    <t>Stayed here 2 nights and we were very happy with this hotel, no complaints and we slept great.  Lots or restaurant choices and a Korger market nearby, and right next door is a sports bar with super friendly service. It is about 20 away from the Space Center.  Even closer is Kemah, where we got delicious crawfish at Crazy Alan's Swamp Shack...HIGHLY RECOMMENDED!  Kemah also has a nice boardwalk with rides and the whole deal.  The kids enjoyed the indoor pool.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r384879394-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>384879394</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Good for a night but what is that smell???</t>
+  </si>
+  <si>
+    <t>I arrived at the beginning of a thunderstorm and just after we checked-in the power went down and stayed up and down, blinking for at least 20 minutes.The outside of the hotel smells terribly and the rooms as well. The humidity is remarkable as you can feel the bed wet under the duvet.It is OK for a night after a long day of walk but no more than this. I believe you can find better places to stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2016</t>
+  </si>
+  <si>
+    <t>I arrived at the beginning of a thunderstorm and just after we checked-in the power went down and stayed up and down, blinking for at least 20 minutes.The outside of the hotel smells terribly and the rooms as well. The humidity is remarkable as you can feel the bed wet under the duvet.It is OK for a night after a long day of walk but no more than this. I believe you can find better places to stay in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r373387535-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -399,6 +564,51 @@
     <t>We chose this hotel due to it close proximity to Kemah Boardwalk and Battleship Texas. At check in we were greeted by a very helpful young lady, I did not catch her name though. The room I was checked in was really clean it had 2 queen bed and comfortably fitted me my husband and 2 boys. There was no faults other than the TV channels had gone out since it was rainy but that is that the hotel's fault. They had it repaired within 4 hours by a technician. The pool was indoors so it worked out perfect for the boys to swim even with the rain. The hotel had a lot of area workers too but they were not a rowdy bunch which we initially were worried about. Overall we enjoyed the stay....More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r364046712-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>364046712</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Good hotel in the area</t>
+  </si>
+  <si>
+    <t>This hotel provided me and a family a comfortable stay. The room was clean and had a cool A/C. The internet in the rooms were free and wifi worked well in our room. The indoor pool seemed in order and that was a good option to since my wife is sensitive to the sun's rays. The breakfast was good, I liked the waffles they had in. The eating area was empty in the morning around 6:30am so we didn't have any trouble on getting on what we wanted. I think that their light signage could be improve since we did pass up the hotel over night when driving back in after dinner. I would consider this hotel again when we travel to Kemah again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel provided me and a family a comfortable stay. The room was clean and had a cool A/C. The internet in the rooms were free and wifi worked well in our room. The indoor pool seemed in order and that was a good option to since my wife is sensitive to the sun's rays. The breakfast was good, I liked the waffles they had in. The eating area was empty in the morning around 6:30am so we didn't have any trouble on getting on what we wanted. I think that their light signage could be improve since we did pass up the hotel over night when driving back in after dinner. I would consider this hotel again when we travel to Kemah again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r355005017-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>355005017</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>hotel close to cruise port</t>
+  </si>
+  <si>
+    <t>Nice reasonably priced hotel within 2 miles of Houston cruise port.Hotel facilities are  of average quality.  Rooms are clean, complimentary breakfast was good, swimming pool was small but well kept.They have shuttle service to the cruise port.This was an excellent place to stay before our cruise.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Nice reasonably priced hotel within 2 miles of Houston cruise port.Hotel facilities are  of average quality.  Rooms are clean, complimentary breakfast was good, swimming pool was small but well kept.They have shuttle service to the cruise port.This was an excellent place to stay before our cruise.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r351531242-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -417,12 +627,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded March 30, 2016</t>
-  </si>
-  <si>
-    <t>Responded March 30, 2016</t>
-  </si>
-  <si>
     <t>Motel has maintained it's appearance and cleanliness since I visited last year. Room was clean but not as bright as I remembered. The window was frosted so You could not see outside and the bulbs were minimum wattage. I would have preferred more light. AC was great....fan continuously circulated air and temp was maintained providing for a good nights sleep. Bed was comfortable bathroom fixtures in good shape. Room had a desk/chair, mw/refrig, 36" led tv and a dresser, ez chair/ottoman. Ample plugs for e devices. Exercise room had nice modern equipment. Indoor pool and hotub were down for repairs.Breakfast was good with an average assortment consisting of yogurt, eggs, sausage, waffles, some fruit plus cereals. Ample parking and dollies to usher in your goodies.More</t>
   </si>
   <si>
@@ -441,9 +645,6 @@
     <t>This place was nice great for the price altho the over night girl was rude and unique helpful the hot breakfast was great. Ginana was so helpful and awesome she said she was even from Missouri The pool was cold and the hot tub wasn't hot at all. But the bed is nice and clean and it's close so I give it 5 outta 5 they nailed it.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>This place was nice great for the price altho the over night girl was rude and unique helpful the hot breakfast was great. Ginana was so helpful and awesome she said she was even from Missouri The pool was cold and the hot tub wasn't hot at all. But the bed is nice and clean and it's close so I give it 5 outta 5 they nailed it.More</t>
   </si>
   <si>
@@ -462,9 +663,6 @@
     <t>This was the closest hotel to the Houston Port.  Reasonably priced with a hot breakfast.  The staff was great.  The rooms were clean and the bed and pillows were fine.  They offer a shuttle to the port for $15.MoreShow less</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded January 14, 2016</t>
   </si>
   <si>
@@ -474,6 +672,54 @@
     <t>This was the closest hotel to the Houston Port.  Reasonably priced with a hot breakfast.  The staff was great.  The rooms were clean and the bed and pillows were fine.  They offer a shuttle to the port for $15.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r322618100-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>322618100</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>Excellent place to stay in La Porte, TX</t>
+  </si>
+  <si>
+    <t>This hotel was above and beyond. A gem for people who are looking an affordable place to stay while on business.The front desk staff was very informative and were always around to assist in anything. Later did I find out from them there is a La Porte Beach on the same road as the hotel. The rooms are clean, and had a homely feel to it. Unlike most places they had housekeeping come in everyday which was great for me since I am allergic to most household chemicals. I enjoyed the breakfast that they had in place. It did have all the essentials as well as some hot items such as sausages and eggs. And not to forget my favorite, waffles! I did not take advantage of the indoor pool but it was great to have if I was ever was off work early. All in all this place is great and I highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>This hotel was above and beyond. A gem for people who are looking an affordable place to stay while on business.The front desk staff was very informative and were always around to assist in anything. Later did I find out from them there is a La Porte Beach on the same road as the hotel. The rooms are clean, and had a homely feel to it. Unlike most places they had housekeeping come in everyday which was great for me since I am allergic to most household chemicals. I enjoyed the breakfast that they had in place. It did have all the essentials as well as some hot items such as sausages and eggs. And not to forget my favorite, waffles! I did not take advantage of the indoor pool but it was great to have if I was ever was off work early. All in all this place is great and I highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r294009283-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>294009283</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Stay the days inn La Porte was nice motel not pricey comfortable and clean. Does have slight musty smell but not bad. Good breakfast and friendly service. Will stay here again. The rooms are small but overall great place. Indoor pool and spa to keep you out of the heat.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Stay the days inn La Porte was nice motel not pricey comfortable and clean. Does have slight musty smell but not bad. Good breakfast and friendly service. Will stay here again. The rooms are small but overall great place. Indoor pool and spa to keep you out of the heat.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r291299721-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -489,9 +735,6 @@
     <t>Spent just one night.  There was some type of mixup and it took 20 minutes to check in.   They had to verify if the room was available and clean.  Room was average until my wife found a roach on the wall in the morning.  I paid just as much on other rooms and got much better service and room. MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 16, 2015</t>
   </si>
   <si>
@@ -549,6 +792,51 @@
     <t>Try somewhere else. The only reason I have it two stars was because the front desk staff was extremely nice. I checked in and the room smelled like mold. They sprayed with freshener but it didn't help. Then the satellite tv didn't work correctly. I had very few channels. It never was fixed properly. I spoke to a woman who has been given room 101 and 103 and they were infested with fleas!  My room had sugar ants all over the bathroom counter. The bed itself was comfortable but the pillows were like small rocks. Did I mention the pool?  It was murky and I was afraid to swim in it-not to mention the used bandaid that was floating In it! The pool didn't seem to have enough chlorine to be sanitary. Breakfast was typical. Waffles. Cereal, pastry ,coffee ,yogurt, powdered eggs , toast ,bagels, oatmeal. Edible. I just expected more and I won't be staying again. Also if you visit laporte-read the water quality report that is left at the front desk at this hotel!! Don't drink the water. Locals drink bottled. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r263278921-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>263278921</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Stay here for visiting family in La Porte and was pleased with the 2 night stay at the hotel. We had ate breakfast both mornings, favorites was waffles and eggs. They have a indoor pool was really nice as it was raining both days so we enjoyed that part. Free Wifi was good speed and was overall a happy camper. We will be back when we visit my brother in the near future.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Samtxa55, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2015</t>
+  </si>
+  <si>
+    <t>Stay here for visiting family in La Porte and was pleased with the 2 night stay at the hotel. We had ate breakfast both mornings, favorites was waffles and eggs. They have a indoor pool was really nice as it was raining both days so we enjoyed that part. Free Wifi was good speed and was overall a happy camper. We will be back when we visit my brother in the near future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r259188996-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>259188996</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Spring break</t>
+  </si>
+  <si>
+    <t>We came for our spring break and enjoyed our stay. The staff was courteous and informational. Our room was very clean and spacious. Housekeeping came every morning and cleaned our room and made out beds while we visited the boardwalk in Kemah. The pool was very clean and the breakfast was very filling. My kids enjoyed the waffles. I'm also a coffee drinker and they always had fresh coffee all day. My family and I will plan to come here again this summer to visit the battleship and Nasa space center .MoreShow less</t>
+  </si>
+  <si>
+    <t>We came for our spring break and enjoyed our stay. The staff was courteous and informational. Our room was very clean and spacious. Housekeeping came every morning and cleaned our room and made out beds while we visited the boardwalk in Kemah. The pool was very clean and the breakfast was very filling. My kids enjoyed the waffles. I'm also a coffee drinker and they always had fresh coffee all day. My family and I will plan to come here again this summer to visit the battleship and Nasa space center .More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r254591876-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -618,6 +906,54 @@
     <t>I stayed at the Quality Inn &amp; Suites over the Christmas holiday.  My room was very nice with plenty of room and a large comfortable bed.  The bathroom/shower was in a small connecting room with plenty of space to move around in.  The breakfast area consisted of your standard breakfast fare, scrambled eggs with sausage, making your own waffles in the shape of the state of Texas, your choice of cold cereal, and muffins with plenty of juices and coffee.  It was a fairly quiet time at this hotel with no real noise issues from other guests.The only fly in the ointment with my stay at this hotel was the condition of the pool and hot tub.  The water in both looked like it hadn't been cleaned in some time with the water being a greenish color instead of clear/light blue.  Needless to say, I didn't take a dip in either one.  Aside from those issues, my stay here was pleasant and I would consider staying here in the future.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r243612929-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>243612929</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>charged me twice</t>
+  </si>
+  <si>
+    <t>Called and made a reservation and they charged my card. When I got there, they said no reservations were made so had to book me in again, so charged twice. Manager said the extra payment would come off but never did.she seemed in a hurry. Pillows were terrible. Won't stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Called and made a reservation and they charged my card. When I got there, they said no reservations were made so had to book me in again, so charged twice. Manager said the extra payment would come off but never did.she seemed in a hurry. Pillows were terrible. Won't stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r235461562-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>235461562</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Quality inn &amp; suites La Porte Texas</t>
+  </si>
+  <si>
+    <t>Strong mold and mildew smell in hall and room, caused eyes to burn and sneezing.  The 'free' WiFi did not work in the room, had to sit in the hall to access. In 3 days, housekeeping showed up once. I was here on business and will have to launder my clean clothes to get out the mildew smell.  Requested correction of WiFi, was told it was ok. Told about room not being cleaned and was told I could come to the desk to pick up towels at the desk. Discussed smell with staff and they agreed it smelled. Same complaints previously noted and management blames it on humidity, but in switching to another hotel, there was not an odor. There was mold growing in the shower.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Samtxa55, Front Office Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Strong mold and mildew smell in hall and room, caused eyes to burn and sneezing.  The 'free' WiFi did not work in the room, had to sit in the hall to access. In 3 days, housekeeping showed up once. I was here on business and will have to launder my clean clothes to get out the mildew smell.  Requested correction of WiFi, was told it was ok. Told about room not being cleaned and was told I could come to the desk to pick up towels at the desk. Discussed smell with staff and they agreed it smelled. Same complaints previously noted and management blames it on humidity, but in switching to another hotel, there was not an odor. There was mold growing in the shower.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r234802403-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -633,15 +969,6 @@
     <t>Called ahead mid-afternoon to make sure we had a non - smoking room available. Only to find out my name wasn't on their reservation list.I called them right back with the confirmation number....Nope not in the system. Had our travel dept call... same problem.... so even with a confirmed/guaranteed reservation you should worry here! MoreShow less</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
-    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded December 29, 2014</t>
-  </si>
-  <si>
-    <t>Responded December 29, 2014</t>
-  </si>
-  <si>
     <t>Called ahead mid-afternoon to make sure we had a non - smoking room available. Only to find out my name wasn't on their reservation list.I called them right back with the confirmation number....Nope not in the system. Had our travel dept call... same problem.... so even with a confirmed/guaranteed reservation you should worry here! More</t>
   </si>
   <si>
@@ -693,15 +1020,54 @@
     <t>I have traveled for 106 days this year and have never had a hotel experience this bad. At first sight, this is a very nice hotel. Nice exterior and nice lobby. After you spend the money and sign to the cancellation fee,they have you. The first room smelled like a flooded basement. When I went to ask for a different room, they were fully booked. The room had more mold in the bathroom than you wanted. You felt dirty from just looking at the shower. There was black mold that surrounded the wall around the AC unit. The next day I did receive a new room, only to have this one infested with mold also. The bathroom had not been cleaned and there was more hair on the floor than I have on my head. This was all I could take. I checked out and moved on to a new hotel in La Porte. This place should be shut down by the Board of Health. Do not waste your money. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r215643032-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>215643032</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>Don't stay on thos hotel ever....</t>
+  </si>
+  <si>
+    <t>There rooms smell like mildew. The first room they gave had a horrible mildew smell. There was mildew on the curtains air conditioning unit. There was   stains all over the bed spreads. The walls needed to painted because of scuff marks on them. Bathroom wasn't cleaned very well.this room was on the the first floor. Told the front desk about the room and they said they would move me to another room. Once I moved to another room  on the thrid floor still smelled like mildew and had it on the curtains. I also picked this hotel because it had a gym. I went to check the gym out there was stains all other the carpet and cookies. The weight machine didn't even work. I was really disappointed. Most of the vending machines didnt even work.  I dont recommend this hotel at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>There rooms smell like mildew. The first room they gave had a horrible mildew smell. There was mildew on the curtains air conditioning unit. There was   stains all over the bed spreads. The walls needed to painted because of scuff marks on them. Bathroom wasn't cleaned very well.this room was on the the first floor. Told the front desk about the room and they said they would move me to another room. Once I moved to another room  on the thrid floor still smelled like mildew and had it on the curtains. I also picked this hotel because it had a gym. I went to check the gym out there was stains all other the carpet and cookies. The weight machine didn't even work. I was really disappointed. Most of the vending machines didnt even work.  I dont recommend this hotel at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r213782218-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>213782218</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>So so</t>
+  </si>
+  <si>
+    <t>This hotel is OK for the price.  Rooms were clean and the girls at the front desk were awesome especially the girl who works mid shift.  The management however is awful and so is housekeeping.  I had to beg to get housekeeping one day and fix my stuffed toilet.  When we got back for the day neither was done and I had to plunge my own toilet!  The manager/owner has zero customer service skills.  I did not try the breakfast but it's served every morning.  For an $80 price it's not a bad place.  I would have given it more stars if it wasn't for the manager and housekeeping.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This hotel is OK for the price.  Rooms were clean and the girls at the front desk were awesome especially the girl who works mid shift.  The management however is awful and so is housekeeping.  I had to beg to get housekeeping one day and fix my stuffed toilet.  When we got back for the day neither was done and I had to plunge my own toilet!  The manager/owner has zero customer service skills.  I did not try the breakfast but it's served every morning.  For an $80 price it's not a bad place.  I would have given it more stars if it wasn't for the manager and housekeeping.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r213733531-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
     <t>213733531</t>
   </si>
   <si>
-    <t>07/05/2014</t>
-  </si>
-  <si>
     <t>Left single lady stranded</t>
   </si>
   <si>
@@ -756,6 +1122,51 @@
     <t>My family and I had stayed hotel this past weekend and we had a great stay. The staff was great and we enjoyed that there was a indoor pool as Friday it was raining. My wife and I loved the breakfast in the morning as they had are favorite which were waffles shaped like Texas. The young manger was nice as he had recommended great restaurants in the area and told us about the beach 2 miles away. Hotel is nicely maintained and surely will stay here when going back to kemah. See you soon guys..- KenMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r207941831-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>207941831</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Disappointed with stay</t>
+  </si>
+  <si>
+    <t>After reading all of the good reviews about this hotel, we decided to stay here over Memorial Day weekend for our anniversary, since we were going to visit area attractions. We noticed right away the attention to detail when it came to cleanliness in our room, but that's where our good impression ended. On Friday when we checked in, we noticed that our bed felt damp, as well as the upholstered chair. We called the front desk, and the clerk brought us another comforter that was dry. We figured it had just been washed and not dried thoroughly, and we figured the chair had recently been steam cleaned. Saturday morning, our bed was damp again, so we let the front desk know. She said the manager would be in on Sunday and she had a note for him. The a/c was working, and the room felt cool. Saturday night when we returned, the room was still damp, including our clothes that we had hanging in the closet. Again, since there was no manager, there was nothing she could do, and she didn't offer to move us to another room. Upon inspection of the a/c unit outside, my husband noticed that the cement slab below it was wet, and mold was growing on it. None of the other units looked like this from the outside. Sunday morning, I tried to make coffee, but the coffee pot was broken. We returned to...After reading all of the good reviews about this hotel, we decided to stay here over Memorial Day weekend for our anniversary, since we were going to visit area attractions. We noticed right away the attention to detail when it came to cleanliness in our room, but that's where our good impression ended. On Friday when we checked in, we noticed that our bed felt damp, as well as the upholstered chair. We called the front desk, and the clerk brought us another comforter that was dry. We figured it had just been washed and not dried thoroughly, and we figured the chair had recently been steam cleaned. Saturday morning, our bed was damp again, so we let the front desk know. She said the manager would be in on Sunday and she had a note for him. The a/c was working, and the room felt cool. Saturday night when we returned, the room was still damp, including our clothes that we had hanging in the closet. Again, since there was no manager, there was nothing she could do, and she didn't offer to move us to another room. Upon inspection of the a/c unit outside, my husband noticed that the cement slab below it was wet, and mold was growing on it. None of the other units looked like this from the outside. Sunday morning, I tried to make coffee, but the coffee pot was broken. We returned to the hotel around 12:30. Our room hadn't been cleaned yet, and within 5 minutes of sitting on the bed, the back of my pants were wet, so we went back to the front desk where we finally met the manager. He moved us to the jacuzzi room across the hall, which was again, very clean. However, I noticed there was no coffee pot, so I went to call the front desk, and there was no phone in the room, either! The square lumpy pillows that so many of the other reviews talk about are correct, however, we found that if you give them a quick shake, they unfold into regular sized pillows, but they are still very lumpy, and flat. We were not charged extra for the upgrade to the jacuzzi room, but we are very disappointed that the issue wasn't taken care of when it was first reported. The front desk clerks were friendly, but couldn't solve our issue until there was a manager present. Definitely won't be staying here again, and certainly won't recommend it to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>After reading all of the good reviews about this hotel, we decided to stay here over Memorial Day weekend for our anniversary, since we were going to visit area attractions. We noticed right away the attention to detail when it came to cleanliness in our room, but that's where our good impression ended. On Friday when we checked in, we noticed that our bed felt damp, as well as the upholstered chair. We called the front desk, and the clerk brought us another comforter that was dry. We figured it had just been washed and not dried thoroughly, and we figured the chair had recently been steam cleaned. Saturday morning, our bed was damp again, so we let the front desk know. She said the manager would be in on Sunday and she had a note for him. The a/c was working, and the room felt cool. Saturday night when we returned, the room was still damp, including our clothes that we had hanging in the closet. Again, since there was no manager, there was nothing she could do, and she didn't offer to move us to another room. Upon inspection of the a/c unit outside, my husband noticed that the cement slab below it was wet, and mold was growing on it. None of the other units looked like this from the outside. Sunday morning, I tried to make coffee, but the coffee pot was broken. We returned to...After reading all of the good reviews about this hotel, we decided to stay here over Memorial Day weekend for our anniversary, since we were going to visit area attractions. We noticed right away the attention to detail when it came to cleanliness in our room, but that's where our good impression ended. On Friday when we checked in, we noticed that our bed felt damp, as well as the upholstered chair. We called the front desk, and the clerk brought us another comforter that was dry. We figured it had just been washed and not dried thoroughly, and we figured the chair had recently been steam cleaned. Saturday morning, our bed was damp again, so we let the front desk know. She said the manager would be in on Sunday and she had a note for him. The a/c was working, and the room felt cool. Saturday night when we returned, the room was still damp, including our clothes that we had hanging in the closet. Again, since there was no manager, there was nothing she could do, and she didn't offer to move us to another room. Upon inspection of the a/c unit outside, my husband noticed that the cement slab below it was wet, and mold was growing on it. None of the other units looked like this from the outside. Sunday morning, I tried to make coffee, but the coffee pot was broken. We returned to the hotel around 12:30. Our room hadn't been cleaned yet, and within 5 minutes of sitting on the bed, the back of my pants were wet, so we went back to the front desk where we finally met the manager. He moved us to the jacuzzi room across the hall, which was again, very clean. However, I noticed there was no coffee pot, so I went to call the front desk, and there was no phone in the room, either! The square lumpy pillows that so many of the other reviews talk about are correct, however, we found that if you give them a quick shake, they unfold into regular sized pillows, but they are still very lumpy, and flat. We were not charged extra for the upgrade to the jacuzzi room, but we are very disappointed that the issue wasn't taken care of when it was first reported. The front desk clerks were friendly, but couldn't solve our issue until there was a manager present. Definitely won't be staying here again, and certainly won't recommend it to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r207535860-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>207535860</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>The good, the bad and the ugly.</t>
+  </si>
+  <si>
+    <t>The good: clean room. comfortable bedding. hot tub.
+The bad: the breakfast was subpar. typical offerings but no catsup. I could have built a house with the bagels. the toaster didn't work. just a general feeling that no one was watching the food. and the hot tub needed cleaning.
+The ugly: my room's dead bolt would not work. I reported it and asked that it be fixed while we were out and nothing. again I ask for the deadbolt to be repaired. nothing. again. nothing. I was very uncomfortable staying in a hotel room where I could not safely lock my room. room 302 by the way for any travelers out there. also, when making the reservation I asked for a room on the first floor. I was given the third floor. I asked if I could be at least be on the end by the pool/hot tub. the room I was given was at the most extreme opposite of the pool. seriously. there was not one room farther from the pool. the safe in our room was locked. I typically use a safe during a stay but could not because some yokel before us had left it locked. I did not inform the front desk of that but I did remind once again at our departure that room 302 would not dead bolt.
+We stayed 4 nights due to a business commitment. 4 nights was too long. Burn me...The good: clean room. comfortable bedding. hot tub.The bad: the breakfast was subpar. typical offerings but no catsup. I could have built a house with the bagels. the toaster didn't work. just a general feeling that no one was watching the food. and the hot tub needed cleaning.The ugly: my room's dead bolt would not work. I reported it and asked that it be fixed while we were out and nothing. again I ask for the deadbolt to be repaired. nothing. again. nothing. I was very uncomfortable staying in a hotel room where I could not safely lock my room. room 302 by the way for any travelers out there. also, when making the reservation I asked for a room on the first floor. I was given the third floor. I asked if I could be at least be on the end by the pool/hot tub. the room I was given was at the most extreme opposite of the pool. seriously. there was not one room farther from the pool. the safe in our room was locked. I typically use a safe during a stay but could not because some yokel before us had left it locked. I did not inform the front desk of that but I did remind once again at our departure that room 302 would not dead bolt.We stayed 4 nights due to a business commitment. 4 nights was too long. Burn me once....MoreShow less</t>
+  </si>
+  <si>
+    <t>The good: clean room. comfortable bedding. hot tub.
+The bad: the breakfast was subpar. typical offerings but no catsup. I could have built a house with the bagels. the toaster didn't work. just a general feeling that no one was watching the food. and the hot tub needed cleaning.
+The ugly: my room's dead bolt would not work. I reported it and asked that it be fixed while we were out and nothing. again I ask for the deadbolt to be repaired. nothing. again. nothing. I was very uncomfortable staying in a hotel room where I could not safely lock my room. room 302 by the way for any travelers out there. also, when making the reservation I asked for a room on the first floor. I was given the third floor. I asked if I could be at least be on the end by the pool/hot tub. the room I was given was at the most extreme opposite of the pool. seriously. there was not one room farther from the pool. the safe in our room was locked. I typically use a safe during a stay but could not because some yokel before us had left it locked. I did not inform the front desk of that but I did remind once again at our departure that room 302 would not dead bolt.
+We stayed 4 nights due to a business commitment. 4 nights was too long. Burn me...The good: clean room. comfortable bedding. hot tub.The bad: the breakfast was subpar. typical offerings but no catsup. I could have built a house with the bagels. the toaster didn't work. just a general feeling that no one was watching the food. and the hot tub needed cleaning.The ugly: my room's dead bolt would not work. I reported it and asked that it be fixed while we were out and nothing. again I ask for the deadbolt to be repaired. nothing. again. nothing. I was very uncomfortable staying in a hotel room where I could not safely lock my room. room 302 by the way for any travelers out there. also, when making the reservation I asked for a room on the first floor. I was given the third floor. I asked if I could be at least be on the end by the pool/hot tub. the room I was given was at the most extreme opposite of the pool. seriously. there was not one room farther from the pool. the safe in our room was locked. I typically use a safe during a stay but could not because some yokel before us had left it locked. I did not inform the front desk of that but I did remind once again at our departure that room 302 would not dead bolt.We stayed 4 nights due to a business commitment. 4 nights was too long. Burn me once....More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r207113832-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -771,15 +1182,6 @@
     <t>Major management problem. Stayed three nights &amp; never did really get room serviced by housekeeping. Had to go to front desk several times1st nite - never cleaned, next nite - clean towels - nothing else. When I was at front desk other guests waiting to voice same concerns. Housekeeping has children with then &amp; they were running up &amp; down halls......MoreShow less</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Samtxa55, Front Office Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 16, 2015</t>
-  </si>
-  <si>
     <t>Major management problem. Stayed three nights &amp; never did really get room serviced by housekeeping. Had to go to front desk several times1st nite - never cleaned, next nite - clean towels - nothing else. When I was at front desk other guests waiting to voice same concerns. Housekeeping has children with then &amp; they were running up &amp; down halls......More</t>
   </si>
   <si>
@@ -831,13 +1233,52 @@
     <t>My husband and I have stayed at this hotel for 4 years during the NHRA races in Baytown. In January 2014, I reserved my room for this year's races. We were on a flight from  Bogota, Colombia, where we live, excited about our race weekend, and upon landing, I checked my email only to find a note that they canceled my reservation due to too many "extensions". A reservation of 4 months. No offer of assistance finding another room, no apology, just canceled. I called and asked to speak to the manager, who cowardly refused to speak to me. I was offered nothing, and we were out of a room during a busy race weekend. I will NEVER stay at this hotel again, and would not recommend it to anyone. There are way nicer hotels in the area, and we will be staying at them from this point on.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r199328271-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>199328271</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel Near Houston Cruise Terminal</t>
+  </si>
+  <si>
+    <t>This is a wonderful place to stay, particularly if you are going on a cruise from the Houston Cruise Terminal. You can pay to leave your car at the hotel and take the hotel's shuttle to the terminal or take a short 10 minute drive to the terminal and park there. The rooms are exceptionally clean and well appointed. The swimming pool and jacuzzi are located inside. A full delicious breakfast is available. We found the staff to be very friendly and most helpful with directions. We frequently stay at Choice Hotels and this is one of the very best Quality Inns that we have stayed at. We will always stay here when we are in the neighborhood.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2014</t>
+  </si>
+  <si>
+    <t>This is a wonderful place to stay, particularly if you are going on a cruise from the Houston Cruise Terminal. You can pay to leave your car at the hotel and take the hotel's shuttle to the terminal or take a short 10 minute drive to the terminal and park there. The rooms are exceptionally clean and well appointed. The swimming pool and jacuzzi are located inside. A full delicious breakfast is available. We found the staff to be very friendly and most helpful with directions. We frequently stay at Choice Hotels and this is one of the very best Quality Inns that we have stayed at. We will always stay here when we are in the neighborhood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r196920415-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>196920415</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Great stay before cruise</t>
+  </si>
+  <si>
+    <t>We spent a night at the La Porte Quality Inn before our cruise.  Check-in was quick, the staff was friendly and helpful, and the rooms were comfortable and clean.  Breakfast was continental and provided a lot of choices, including waffles.  The hotel provides transportation to and from the cruise terminal at a minimal cost (less than leaving your car at the terminal).  Our driver, Harry, was punctual and courteous.  A special note - when we returned from our cruise, the weather was cold, but Harry left his car to find us so that we did not have to wait in the cold wind. This level of service is to be commended. We will stay here again on our next visit to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We spent a night at the La Porte Quality Inn before our cruise.  Check-in was quick, the staff was friendly and helpful, and the rooms were comfortable and clean.  Breakfast was continental and provided a lot of choices, including waffles.  The hotel provides transportation to and from the cruise terminal at a minimal cost (less than leaving your car at the terminal).  Our driver, Harry, was punctual and courteous.  A special note - when we returned from our cruise, the weather was cold, but Harry left his car to find us so that we did not have to wait in the cold wind. This level of service is to be commended. We will stay here again on our next visit to the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r196872596-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
     <t>196872596</t>
-  </si>
-  <si>
-    <t>03/10/2014</t>
   </si>
   <si>
     <t>worth considering tho' not centrally located</t>
@@ -904,6 +1345,61 @@
   I was highly dissatisfied with the service I received and will likely never stay at a Quality...Stayed from 02/24/2014 and 02/27/2014.  The hotel night clerk made billing errors, did not charge my card properly, and attempted to charge me on check-out the amount that was already billed and paid for on check-in.  The night clerk then called me on the last night of my stay at 3:30 a.m. to report that my card did not accept the additional charges.  He called at 3:30 in the morning.  The hotel staff knew the important nature of my business stay and woke me in the middle of the night anyway.  My credit card company (thank God for their vigilance) declined the improper charges and assured me the mistake was neither on their end or mine.  The night clerk further developed an unpleasant attitude and refused to apologize or even recognize his mistake despite both my credit card company and myself explaining the errors.  After explaining that even if it was a credit card error I still should not have been interrupted in the middle of the night, he remained unapologetic and hostile.  The General Manger then contacted me about this matter.  He was also unapologetic and stated that the night clerk was just doing his job.  So caution to other potential guests out there, it is apparently hotel policy to unrepentantly wake guests in the middle of the night for hotel errors.  I was highly dissatisfied with the service I received and will likely never stay at a Quality Inn again especially the one in La Porte, Texas.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r196028725-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>196028725</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Way to end my friends 45th renewal vows</t>
+  </si>
+  <si>
+    <t>Was very happy with our stay at the hotel.  First impression was that it was very clean and it was. The bathroom was big but the room was rather tight.  I was still very satisfied with the hotel and will return again.  Convienient to everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 5, 2014</t>
+  </si>
+  <si>
+    <t>Was very happy with our stay at the hotel.  First impression was that it was very clean and it was. The bathroom was big but the room was rather tight.  I was still very satisfied with the hotel and will return again.  Convienient to everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r194337118-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>194337118</t>
+  </si>
+  <si>
+    <t>02/16/2014</t>
+  </si>
+  <si>
+    <t>Good hotel for a night before a cruise</t>
+  </si>
+  <si>
+    <t>Having never been to Houston, we weren't sure what to expect....so we chose this property because it was the only one we could find with a shuttle to the cruise terminal. My husband is a Choice Privileges member so we try to stay at Choice hotels whenever possible. 
+This hotel was good enough for one night before a cruise, but I wouldn't want to stay more than one night. 
+The positives: The staff was great! Really helpful and personable. The price was right, and there was a shuttle to the port (for a $15 per person, one way). We also like the free breakfast to help save on costs. 
+The negatives: Houston itself (from the airport to this hotel, and to the port) was really quite disappointing. I felt like we landed in a big oil refinery....there is nothing around this hotel except refineries. Our flight was really delayed and we got to the hotel around 11:00, and we were able to get pizza delivered. But don't go expecting to be able to go out and do things. 
+We also didn't rent a car because we were taking a cruise. I knew the hotel was far from the airport, but it was a $120 cab ride (and I was not at all convinced we were going to make it to the hotel alive....crazy driver....). 
+The hotel itself was a nice looking property, about 4 years old. The rooms were really...Having never been to Houston, we weren't sure what to expect....so we chose this property because it was the only one we could find with a shuttle to the cruise terminal. My husband is a Choice Privileges member so we try to stay at Choice hotels whenever possible. This hotel was good enough for one night before a cruise, but I wouldn't want to stay more than one night. The positives: The staff was great! Really helpful and personable. The price was right, and there was a shuttle to the port (for a $15 per person, one way). We also like the free breakfast to help save on costs. The negatives: Houston itself (from the airport to this hotel, and to the port) was really quite disappointing. I felt like we landed in a big oil refinery....there is nothing around this hotel except refineries. Our flight was really delayed and we got to the hotel around 11:00, and we were able to get pizza delivered. But don't go expecting to be able to go out and do things. We also didn't rent a car because we were taking a cruise. I knew the hotel was far from the airport, but it was a $120 cab ride (and I was not at all convinced we were going to make it to the hotel alive....crazy driver....). The hotel itself was a nice looking property, about 4 years old. The rooms were really small, but decent for an overnight stay. Our room was not really all that clean. The desk chair had schmutz all over it, and under the desk had not been vacuumed. The shower had mold growing in it, and the back of our bathroom door was dirty with something unexplainable. The pillows are also folded in half, like giant marshmallows. We didn't figure out until about 6am that they were folded in half and could be unfolded and more comfortable. I just thought it was weird. The breakfast was standard, and I really liked the Texas-shaped waffles! We got down there about 10 minutes before it was done and there was barely enough waffle mix for a waffle, but I got one. My husband had the eggs and sausage - it was cold. His eggs were inedible - I've never seen him not eat his breakfast before! But there were other options - boiled eggs, pastries, yogurt, cereal, etc. So it wasn't the best we've had, but it was sufficient. Overall, if you need a place to rest your head before boarding a cruise, this is a great value. But if you are picky about your accommodations, I wouldn't necessarily recommend it. Personally, if there were an airport shuttle, or if we found a rental car that would cut the cab fare costs (there is free parking onsite), I would probably stay here again. It wasn't quite up to my expectations with most of the Choice Hotels we've stayed at before, though.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded February 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2014</t>
+  </si>
+  <si>
+    <t>Having never been to Houston, we weren't sure what to expect....so we chose this property because it was the only one we could find with a shuttle to the cruise terminal. My husband is a Choice Privileges member so we try to stay at Choice hotels whenever possible. 
+This hotel was good enough for one night before a cruise, but I wouldn't want to stay more than one night. 
+The positives: The staff was great! Really helpful and personable. The price was right, and there was a shuttle to the port (for a $15 per person, one way). We also like the free breakfast to help save on costs. 
+The negatives: Houston itself (from the airport to this hotel, and to the port) was really quite disappointing. I felt like we landed in a big oil refinery....there is nothing around this hotel except refineries. Our flight was really delayed and we got to the hotel around 11:00, and we were able to get pizza delivered. But don't go expecting to be able to go out and do things. 
+We also didn't rent a car because we were taking a cruise. I knew the hotel was far from the airport, but it was a $120 cab ride (and I was not at all convinced we were going to make it to the hotel alive....crazy driver....). 
+The hotel itself was a nice looking property, about 4 years old. The rooms were really...Having never been to Houston, we weren't sure what to expect....so we chose this property because it was the only one we could find with a shuttle to the cruise terminal. My husband is a Choice Privileges member so we try to stay at Choice hotels whenever possible. This hotel was good enough for one night before a cruise, but I wouldn't want to stay more than one night. The positives: The staff was great! Really helpful and personable. The price was right, and there was a shuttle to the port (for a $15 per person, one way). We also like the free breakfast to help save on costs. The negatives: Houston itself (from the airport to this hotel, and to the port) was really quite disappointing. I felt like we landed in a big oil refinery....there is nothing around this hotel except refineries. Our flight was really delayed and we got to the hotel around 11:00, and we were able to get pizza delivered. But don't go expecting to be able to go out and do things. We also didn't rent a car because we were taking a cruise. I knew the hotel was far from the airport, but it was a $120 cab ride (and I was not at all convinced we were going to make it to the hotel alive....crazy driver....). The hotel itself was a nice looking property, about 4 years old. The rooms were really small, but decent for an overnight stay. Our room was not really all that clean. The desk chair had schmutz all over it, and under the desk had not been vacuumed. The shower had mold growing in it, and the back of our bathroom door was dirty with something unexplainable. The pillows are also folded in half, like giant marshmallows. We didn't figure out until about 6am that they were folded in half and could be unfolded and more comfortable. I just thought it was weird. The breakfast was standard, and I really liked the Texas-shaped waffles! We got down there about 10 minutes before it was done and there was barely enough waffle mix for a waffle, but I got one. My husband had the eggs and sausage - it was cold. His eggs were inedible - I've never seen him not eat his breakfast before! But there were other options - boiled eggs, pastries, yogurt, cereal, etc. So it wasn't the best we've had, but it was sufficient. Overall, if you need a place to rest your head before boarding a cruise, this is a great value. But if you are picky about your accommodations, I wouldn't necessarily recommend it. Personally, if there were an airport shuttle, or if we found a rental car that would cut the cab fare costs (there is free parking onsite), I would probably stay here again. It wasn't quite up to my expectations with most of the Choice Hotels we've stayed at before, though.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r192478633-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -973,6 +1469,42 @@
     <t>The hotel was quiet and very nice. The beds are very comfortable . good service we did not get breakfast but once,  had to be at work to early. It was ok . Close to the beach and a lot of restaurants close  would stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r173089311-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>173089311</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Close Beach hotel, very clean!</t>
+  </si>
+  <si>
+    <t>We out this weekend to Kemah, and found this hotel to be reasonably priced and close. What we did not know was how close it was to a beach. It was a gem found. The hotel was very clean as well have nice rooms. The service was excellent we always was address in a timely matter and they answered all our questions. The hotel seems to be new.MoreShow less</t>
+  </si>
+  <si>
+    <t>We out this weekend to Kemah, and found this hotel to be reasonably priced and close. What we did not know was how close it was to a beach. It was a gem found. The hotel was very clean as well have nice rooms. The service was excellent we always was address in a timely matter and they answered all our questions. The hotel seems to be new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r172833844-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>172833844</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>Happy Happy Happy</t>
+  </si>
+  <si>
+    <t>I was treated like a king.. The room was great and the desk clerks were wonderful.The only thing I did not like were the eggs at breakfast.OK so I made sausage biscuits.  Very nice place to stay.I recommended this hotel to my customer in Pasadena TX for their customers too.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was treated like a king.. The room was great and the desk clerks were wonderful.The only thing I did not like were the eggs at breakfast.OK so I made sausage biscuits.  Very nice place to stay.I recommended this hotel to my customer in Pasadena TX for their customers too.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r169021677-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1031,6 +1563,42 @@
   </si>
   <si>
     <t>this is a nice, fairly new hotel. The clerk on duty at out 8 pm check in was very polite, helpful and efficient. He asked what outplays were, offered suggestions of things to do, etc., very pleasant young man.  The room was in good shape, beds clean and comfy, bathroom clean and well stocked. The only room problem was a burned out light bulb...no worries. Breakfast was the normal free hotel fare. Not a bad stay at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r166891435-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>166891435</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Nice for the price</t>
+  </si>
+  <si>
+    <t>This Quality Inn &amp; Suites is fairly new. Room  was nice, with refrigerator, safe, and large flat screen tv. Warning, if you want nice bathtub that is in the corner of the bedroom, you have to ask for it. Great service and very friendly. We were in room 223. The bed was comfortable for my wife, but uncomfortable to me. I weigh 259 and she is less than half that, if that helps.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Quality Inn &amp; Suites is fairly new. Room  was nice, with refrigerator, safe, and large flat screen tv. Warning, if you want nice bathtub that is in the corner of the bedroom, you have to ask for it. Great service and very friendly. We were in room 223. The bed was comfortable for my wife, but uncomfortable to me. I weigh 259 and she is less than half that, if that helps.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r164283511-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>164283511</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Poor at best</t>
+  </si>
+  <si>
+    <t>I am a construction safety man and stayed at this hotel in March of 2013 during a shut-down I was working in the area. It was deceptive, it looked nice from the outside and the description online and the pro photos that make a kiddie pool look like a full size pool. The rooms are tiny. They have roaches. The business facilities didn't work. The staff seemed too busy to wait on me, when they did, it was an attitude. I could never get in touch with the manager. The breakfast was not good, except for the cereal and toast. The only person I would recommend this hotel/motel to, would be my ex-wife and her mother.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a construction safety man and stayed at this hotel in March of 2013 during a shut-down I was working in the area. It was deceptive, it looked nice from the outside and the description online and the pro photos that make a kiddie pool look like a full size pool. The rooms are tiny. They have roaches. The business facilities didn't work. The staff seemed too busy to wait on me, when they did, it was an attitude. I could never get in touch with the manager. The breakfast was not good, except for the cereal and toast. The only person I would recommend this hotel/motel to, would be my ex-wife and her mother.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r162148195-Quality_Inn_Suites-La_Porte_Texas.html</t>
@@ -1106,6 +1674,48 @@
     <t>We had an excellent experience at this hotel.  My wife and I ran the Seabrook Marathon Sunday morning and needed a late checkout to be able to clean up before a long trip home.  Despite being the last weekend of spring break and the hotel being 100% booked both Sunday and Monday, the staff was friendly, helpful and accomodated our request.   They even allowed us an early breakfast Sunday morning as we left for our race before normal breakfast hours.Facility was clean and well maintained.  Indoor pool and spa facilities were wonderful.An excellent experience at this hotel for 2 years in a row as we participate in this area race.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r154908296-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>154908296</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Our reservation was not honored</t>
+  </si>
+  <si>
+    <t>This Quality Inn &amp; Suites is a Choice Hotel. We are Choice Privileges Elite Gold Members. We had a reservation and GUARANTEED it with our Choice Privileges Visa Card.We showed up to the hotel at 7pm and were told that they gave our room away at 6pm, and that they had nothing left available. Totally unacceptable, and they made a very poor effort to try and correct their mistake. They genuinely seemed NOT to care that they completely messed up, and didn't seem interested in doing whatever they needed to make it right.Another reservation came in after us, and their room had been given away as well.BEWARE - If you have a reservation, even if you guarantee it with your credit card, you still may be turned away.Horrible way to do business. Terrible customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lance P, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>This Quality Inn &amp; Suites is a Choice Hotel. We are Choice Privileges Elite Gold Members. We had a reservation and GUARANTEED it with our Choice Privileges Visa Card.We showed up to the hotel at 7pm and were told that they gave our room away at 6pm, and that they had nothing left available. Totally unacceptable, and they made a very poor effort to try and correct their mistake. They genuinely seemed NOT to care that they completely messed up, and didn't seem interested in doing whatever they needed to make it right.Another reservation came in after us, and their room had been given away as well.BEWARE - If you have a reservation, even if you guarantee it with your credit card, you still may be turned away.Horrible way to do business. Terrible customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r154812936-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>154812936</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>La Porte Hotel</t>
+  </si>
+  <si>
+    <t>It was great to stay in this hotel.  Sam Gupta was very helpful, he printed out several sightseeing locations for me.  The rooms were very nice and clean.  I liked the in door pool and there was also an exercise room, this was the only thing that was not working, so i didnt use it.  I also liked the breakfast, even though the coffee was not as strong as I would have liked it, but that is my preference as lately I have stronger coffee.  So I still want to give the hotel Excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was great to stay in this hotel.  Sam Gupta was very helpful, he printed out several sightseeing locations for me.  The rooms were very nice and clean.  I liked the in door pool and there was also an exercise room, this was the only thing that was not working, so i didnt use it.  I also liked the breakfast, even though the coffee was not as strong as I would have liked it, but that is my preference as lately I have stronger coffee.  So I still want to give the hotel Excellent.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r152489949-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1166,6 +1776,48 @@
     <t>Great rates. Feels very safe.  Front desk have always been friendly and helpful. Close enough to anything in south Houston but away from hustle of the city. No restaurants walking distance but there are lots in the area. Have stayed here several times. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r147403324-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>147403324</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>so so stay</t>
+  </si>
+  <si>
+    <t>senior traveler 2 night stay,1-we got a room with frosted glass, they are in the back so we could not see out.2-the pillows are terrible, lumpy and soft and are pounded into little squares3-forget about breakfast  terrible food4-the front desk people dressed sloppy the price was good, the rooms were clean otherwise we will not stay againthere is really nothing around therefor a new hotel we found it not to our liking and will not stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>senior traveler 2 night stay,1-we got a room with frosted glass, they are in the back so we could not see out.2-the pillows are terrible, lumpy and soft and are pounded into little squares3-forget about breakfast  terrible food4-the front desk people dressed sloppy the price was good, the rooms were clean otherwise we will not stay againthere is really nothing around therefor a new hotel we found it not to our liking and will not stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r146264544-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>146264544</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Great Quality Inn, good stay</t>
+  </si>
+  <si>
+    <t>I usually don't stay at hotels, and stay with the family, but due to an overflow at my cousins house I decided to stay here. The staff here in particular are very friendly and help whenever they can. The rooms were quite comfortable, and very soft beds in good shape. Everything in the room functioned , and the bathroom was clean. Never used the indoor pool, but it looked very nice. I will definitely stay here again if necessary.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>I usually don't stay at hotels, and stay with the family, but due to an overflow at my cousins house I decided to stay here. The staff here in particular are very friendly and help whenever they can. The rooms were quite comfortable, and very soft beds in good shape. Everything in the room functioned , and the bathroom was clean. Never used the indoor pool, but it looked very nice. I will definitely stay here again if necessary.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r145694516-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1181,9 +1833,6 @@
     <t>Pros:Low price, clean, quiet, vent system stays on steadyCons:  Desk people low class and unfriendly, wireless internet does not work at all, the worst tiny pillows ever, windows sealed, and they try the ol' safe charge trick when you check out.MoreShow less</t>
   </si>
   <si>
-    <t>November 2012</t>
-  </si>
-  <si>
     <t>Pros:Low price, clean, quiet, vent system stays on steadyCons:  Desk people low class and unfriendly, wireless internet does not work at all, the worst tiny pillows ever, windows sealed, and they try the ol' safe charge trick when you check out.More</t>
   </si>
   <si>
@@ -1224,6 +1873,48 @@
   </si>
   <si>
     <t>We had a very good stay at this hotel. I have seen complaints about management in other reviews, but we only dealt with front desk staff. They were very pleasant and helpful. We only had one washcloth in our room and they gave us more (and extra coffee pods) with no problems. The room was a little small, but very clean. We were happy with the breakfast. There was plenty of food out. It seemed like the front desk clerk was responsible for restocking the breakfast, but the maintenance worker helped her out. It was definitely a good stay for the price. 2 complaints - the hotel does not put the room rate on the reservation confirmation and they turn the AC completely off between guests. It was VERY hot in the room when arrived.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r138344766-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>138344766</t>
+  </si>
+  <si>
+    <t>08/25/2012</t>
+  </si>
+  <si>
+    <t>OK hotel for the money....</t>
+  </si>
+  <si>
+    <t>Stayed here in 8/12.  We stayed here because many reviews claimed how clean it was.  The room and bathroom were pretty clean, although there was dried up dog poop in the corner of the room that was in between the wall and the chair.  There was also trash that was left on the floor in between the side table and bed.  The floors in the bathroom felt as if there was some type of residue on them, it didn't feel clean when walking barefoot.  Their cleaning staff could've done a better job.  The elevator was VERY slow and we took the stairs most of the time.  Bring your own pillows, because the pillows they provide are too small, like throw pillows for your couch. The rooms aren't that big either, at least the ones with 2 beds aren't. The employees we dealt with seemed nice.  We had no problems with them.  Overall, the price was good and it was close to a lot of places like Texas Battleship, Galveston, Kemah, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded August 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here in 8/12.  We stayed here because many reviews claimed how clean it was.  The room and bathroom were pretty clean, although there was dried up dog poop in the corner of the room that was in between the wall and the chair.  There was also trash that was left on the floor in between the side table and bed.  The floors in the bathroom felt as if there was some type of residue on them, it didn't feel clean when walking barefoot.  Their cleaning staff could've done a better job.  The elevator was VERY slow and we took the stairs most of the time.  Bring your own pillows, because the pillows they provide are too small, like throw pillows for your couch. The rooms aren't that big either, at least the ones with 2 beds aren't. The employees we dealt with seemed nice.  We had no problems with them.  Overall, the price was good and it was close to a lot of places like Texas Battleship, Galveston, Kemah, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r136351881-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>136351881</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>"LOVED IT... WE WILL BE BACK!!!" :)</t>
+  </si>
+  <si>
+    <t>First impression is the last impression and boy when we walked into this place it was AMAZING a big chandalier overlooking us from below and rails that went with it look like we were in a mansion. It was real close to kemah and not that far from Galvestion which were the main reasons we were there.. The price is unbeatable as they offer so much for it.. ( promoting most likely cause there new)  The front desk people were also great fast and to the point, they knew there stuff and recommended a great mexican resturant.. They have a indoor pool and fitness center that will have you busy if nothing else to do for the afternoon.. Breakfast was good and had stock items always.. The place looks newly built and designed beautifully. We loved the room, nice for a family of 5 and was just as we saw in the pictures. If all Choice Hotels are like these. Then you have us sold.. Thanks guys and we will see you next summer if we return to Houston!!! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>First impression is the last impression and boy when we walked into this place it was AMAZING a big chandalier overlooking us from below and rails that went with it look like we were in a mansion. It was real close to kemah and not that far from Galvestion which were the main reasons we were there.. The price is unbeatable as they offer so much for it.. ( promoting most likely cause there new)  The front desk people were also great fast and to the point, they knew there stuff and recommended a great mexican resturant.. They have a indoor pool and fitness center that will have you busy if nothing else to do for the afternoon.. Breakfast was good and had stock items always.. The place looks newly built and designed beautifully. We loved the room, nice for a family of 5 and was just as we saw in the pictures. If all Choice Hotels are like these. Then you have us sold.. Thanks guys and we will see you next summer if we return to Houston!!! :)More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r135842097-Quality_Inn_Suites-La_Porte_Texas.html</t>
@@ -1299,6 +1990,45 @@
 And our second night was bad, went back to our room after a long day and no towels and we were told they had no more available. What happened then to the towels that we had...I was with a guest that stayed at this place and it was not what I expected for a choice hotel.The room was clean but the lobby was dark and HOT, very uncomfortable, the hallways were warm also, the only relief we got was the ac in our room.The "manager" was quite rude and didnt seem to have a clue about customer service. He was young and had an attitude.Our sleep was great breakfast was being taken care of by the desk staff. I am retired from hotels and I know what requirements are for choice, they have to have their own breakfast attendant not the desk clerk. *Dont know how they get away with that) breakfast was good. But there again it was uncomfortably warm in the lobby and breakfast area. That is horrible to be dressed and fresh for the day and then step into a sauna, before you got outside.I would have to rethink staying there again, and I plan on telling others about the stay.There are other places to stay and I think I will recommend that we stay elsewhere, especially in the hot summer months. What is it like in the colder times, No heat!!!And our second night was bad, went back to our room after a long day and no towels and we were told they had no more available. What happened then to the towels that we had in our room? Couldn't they be washed and returned? Seems to me there is a need for new management, the staff is friendly and eager but the management doesnt seem to be. I do plan to call choice hotels corp office and complain.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r129056296-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>129056296</t>
+  </si>
+  <si>
+    <t>04/29/2012</t>
+  </si>
+  <si>
+    <t>Ruby S-horrible experience</t>
+  </si>
+  <si>
+    <t>Had horrible experience with General Manager there on Friday, April 27, 2012. Was there for Purple Raceway Car Races and had reserved three rooms for family. We had reserved a month ahead of time and was quoted a certain price. When we arrived the General Manager stated that the rate quoted was not right. Needless to say we weren't happy and expressed our disappointment in not honoring Internet Price and the General Manage stated "well I can cancel your rooms". This was all done in lobby in front of other people waiting to check in. No one every said anything about cancelling the rooms, just the disagreement of the price quoted on Internet and then him stating another price. WILL NEVER STAY THERE AGAIN!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Had horrible experience with General Manager there on Friday, April 27, 2012. Was there for Purple Raceway Car Races and had reserved three rooms for family. We had reserved a month ahead of time and was quoted a certain price. When we arrived the General Manager stated that the rate quoted was not right. Needless to say we weren't happy and expressed our disappointment in not honoring Internet Price and the General Manage stated "well I can cancel your rooms". This was all done in lobby in front of other people waiting to check in. No one every said anything about cancelling the rooms, just the disagreement of the price quoted on Internet and then him stating another price. WILL NEVER STAY THERE AGAIN!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r125885983-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>125885983</t>
+  </si>
+  <si>
+    <t>03/10/2012</t>
+  </si>
+  <si>
+    <t>Quality Inn and Suites - Very Nice Stay, clean rooms</t>
+  </si>
+  <si>
+    <t>Enjoy my stay over here. The price was right in our ball park range. The rooms were nice and clean. The room we got was a king roomand was really cozy for husband and me. I didn't eat the breakfast, since I am a late sleeper, but did enjoy the indoor pool which was really refreshing. The hotel seemed really safe and secure, which was one of main concerns. The staff here seemed busy most of the time, but did like to talk if you are a conversation starter like me. All in all it was a good stay, and would definitely look up this place again if coming back to la porte.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Enjoy my stay over here. The price was right in our ball park range. The rooms were nice and clean. The room we got was a king roomand was really cozy for husband and me. I didn't eat the breakfast, since I am a late sleeper, but did enjoy the indoor pool which was really refreshing. The hotel seemed really safe and secure, which was one of main concerns. The staff here seemed busy most of the time, but did like to talk if you are a conversation starter like me. All in all it was a good stay, and would definitely look up this place again if coming back to la porte.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r125713025-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1314,9 +2044,6 @@
     <t>I chose this particular hotel due to being near both Kemah Boardwalk and Baytown where my family lives, and in the end I am happy we did. The staff was great in helping me get to Baytown which was very close on Highway 146, where the hotel was located. Kids loved the indoor pool; it kept then busy while I got some sleep from the drive over here. The room condition was really good no complaints and there was wide selection of channels on TV (more than I get back at home). Anoter thing that I liked about this hotel is that they are NOT pet friendly, which is good for people who are allergic to pet hair and what not. The breakfast was decent, it had all you could ask for and then some, coffee and a muffin just does for me in the morning. At night we were recommeded a good mexican resturant (wish I remembered name), by the staff and was good way to catch up with the family. Only thing that got wrong was when we go to Kemah it started to rain, and had to go the next day on Sunday. I would recommend this hotel especially for families that are on a budget.MoreShow less</t>
   </si>
   <si>
-    <t>March 2012</t>
-  </si>
-  <si>
     <t>I chose this particular hotel due to being near both Kemah Boardwalk and Baytown where my family lives, and in the end I am happy we did. The staff was great in helping me get to Baytown which was very close on Highway 146, where the hotel was located. Kids loved the indoor pool; it kept then busy while I got some sleep from the drive over here. The room condition was really good no complaints and there was wide selection of channels on TV (more than I get back at home). Anoter thing that I liked about this hotel is that they are NOT pet friendly, which is good for people who are allergic to pet hair and what not. The breakfast was decent, it had all you could ask for and then some, coffee and a muffin just does for me in the morning. At night we were recommeded a good mexican resturant (wish I remembered name), by the staff and was good way to catch up with the family. Only thing that got wrong was when we go to Kemah it started to rain, and had to go the next day on Sunday. I would recommend this hotel especially for families that are on a budget.More</t>
   </si>
   <si>
@@ -1368,6 +2095,54 @@
     <t>We came to visit family &amp; ended up needing an extra bed because of an emergency situation. Staff were wonderful &amp; took care of our needs in a stellar manner. This hotel, with an inside pool, by the way ~ a great treat for winter, was clean &amp; tidy, had a very comfortable bed. Can't complain about anything &amp; will stay again when we come back down to visitMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r124456487-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>124456487</t>
+  </si>
+  <si>
+    <t>02/11/2012</t>
+  </si>
+  <si>
+    <t>Almost cried when it was time to leave!</t>
+  </si>
+  <si>
+    <t>I am a bit of a hotel snob. It doesn't need to be ritzy, but I don't want to wake up every half hour, afraid bugs will crawl on me or a bullet will whiz past my head. I was incredibly impressed with this hotel. There's a big chandalier when you walk in and a beautiful winding staircase. My husband and I booked a room with a king bed for three nights, and I wish we could've stayed longer. The room was big, the TV was modern, and the bathroom was huge and spa-like, with modern tiles and lighting. It felt clean, safe and very comfortable. Continental breakfast was great -- fruit, yogurt, eggs, sausage, oatmeal, bagels, waffle maker, coffee, tea and more. We accessed our email in the little office set up near the check-in counter. No complaints there, either. The area is a Houston suburb and very safe, with lots of shopping and restaurants a short drive away. Everyone was incredibly friendly. The next time we visit family in Houston, we will absolutely 100 percent stay at this hotel again. Like I said in the title, I nearly cried when it was time to leave. Perhaps it's because I was pleasantly surprised that a hotel with such low rates could be so awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded February 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2012</t>
+  </si>
+  <si>
+    <t>I am a bit of a hotel snob. It doesn't need to be ritzy, but I don't want to wake up every half hour, afraid bugs will crawl on me or a bullet will whiz past my head. I was incredibly impressed with this hotel. There's a big chandalier when you walk in and a beautiful winding staircase. My husband and I booked a room with a king bed for three nights, and I wish we could've stayed longer. The room was big, the TV was modern, and the bathroom was huge and spa-like, with modern tiles and lighting. It felt clean, safe and very comfortable. Continental breakfast was great -- fruit, yogurt, eggs, sausage, oatmeal, bagels, waffle maker, coffee, tea and more. We accessed our email in the little office set up near the check-in counter. No complaints there, either. The area is a Houston suburb and very safe, with lots of shopping and restaurants a short drive away. Everyone was incredibly friendly. The next time we visit family in Houston, we will absolutely 100 percent stay at this hotel again. Like I said in the title, I nearly cried when it was time to leave. Perhaps it's because I was pleasantly surprised that a hotel with such low rates could be so awesome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r123209687-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>123209687</t>
+  </si>
+  <si>
+    <t>01/17/2012</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>This hotel is a very good value unless you have special needs. (see comments at end of review.)  It is fairly new and is comparable to other hotels in its class.  The room was clean and of moderate size.  The breakfast was eggs, sausage, yogart and cereals.  It is located in an industrial area which may concern those with breathing issues.  An elderly family member visited 3 different rooms classed as accessible rooms and none of them had handrails near the commode.  When the family member asked for a phone book to locate another hotel that was accessible the staff member had to be asked 4 times before providing a phone book to be used at the desk.  This was the most disappointing issue surrounding the stay although both of the remaining family members had to change rooms for various reasons.  I will visit this hotel again when in the area to see family but those with special needs may wish to look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded January 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is a very good value unless you have special needs. (see comments at end of review.)  It is fairly new and is comparable to other hotels in its class.  The room was clean and of moderate size.  The breakfast was eggs, sausage, yogart and cereals.  It is located in an industrial area which may concern those with breathing issues.  An elderly family member visited 3 different rooms classed as accessible rooms and none of them had handrails near the commode.  When the family member asked for a phone book to locate another hotel that was accessible the staff member had to be asked 4 times before providing a phone book to be used at the desk.  This was the most disappointing issue surrounding the stay although both of the remaining family members had to change rooms for various reasons.  I will visit this hotel again when in the area to see family but those with special needs may wish to look elsewhere.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r121605802-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1428,6 +2203,54 @@
     <t>Me and my family live in florida and come down here every year or so to visit my husbands family. I'm glad we found this hotel, we will now use this one every time. Our stay was incredible! Extremely good rates and the hotel is gorgeous. Extremely clean, not to mention how nice the decor is. Our kiddos absolutely loved the indoor swimming area and my husband couldn't get enough of the happy hour they offer there. The staff was more than helpful and the breakfast was spectacular! I give quality inn in la Porte Texas a 10!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r119090550-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>119090550</t>
+  </si>
+  <si>
+    <t>10/08/2011</t>
+  </si>
+  <si>
+    <t>Fantastic Weekend Getaway near Houston</t>
+  </si>
+  <si>
+    <t>Incredible hotel, the price was very affordable and rooms were more than accommodating as well as very clean.  Kids were tired out with the Indoor Pool, and slept great with no interruptions. Great breakfast, the breakfast even came with meat, which usually not seen in continental breakfasts. The staff was very knowledgeable about the area and sent our way to a lovely restaurant downtown. From of it the looks this place must be fairly new.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Incredible hotel, the price was very affordable and rooms were more than accommodating as well as very clean.  Kids were tired out with the Indoor Pool, and slept great with no interruptions. Great breakfast, the breakfast even came with meat, which usually not seen in continental breakfasts. The staff was very knowledgeable about the area and sent our way to a lovely restaurant downtown. From of it the looks this place must be fairly new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r118383928-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>118383928</t>
+  </si>
+  <si>
+    <t>09/20/2011</t>
+  </si>
+  <si>
+    <t>Worst service ever!</t>
+  </si>
+  <si>
+    <t>Staff was very rude and unavailable. Rooms were very very small. Wifi didn't work. Room was very damp so much so the bathroom never dried after a shower. AC didn't work well. Breakfast would have been better at a gas station. The OJ was Sunny D and they had a limited expired looking selection. On two separate occasions once when we asked for an extra blanket and once when we asked for towels we were told they would probably have to go do some laundry and they didn't know if they could get us some. We had to follow up both times because they never brought any. They charged our card a huge deposit (without our knowledge) above what priceline charged and have yet to return it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 22, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2011</t>
+  </si>
+  <si>
+    <t>Staff was very rude and unavailable. Rooms were very very small. Wifi didn't work. Room was very damp so much so the bathroom never dried after a shower. AC didn't work well. Breakfast would have been better at a gas station. The OJ was Sunny D and they had a limited expired looking selection. On two separate occasions once when we asked for an extra blanket and once when we asked for towels we were told they would probably have to go do some laundry and they didn't know if they could get us some. We had to follow up both times because they never brought any. They charged our card a huge deposit (without our knowledge) above what priceline charged and have yet to return it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r115557829-Quality_Inn_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1443,12 +2266,6 @@
     <t>This hotel is the best hotel I have been To yet! Hotel Staff are very helpful, they will help you with everything you need. Rooms are clean. Breakfast is good. Happy Hour is awesome(free beer &amp; popcorn). I will definitely be back. MoreShow less</t>
   </si>
   <si>
-    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded August 24, 2015</t>
-  </si>
-  <si>
-    <t>Responded August 24, 2015</t>
-  </si>
-  <si>
     <t>This hotel is the best hotel I have been To yet! Hotel Staff are very helpful, they will help you with everything you need. Rooms are clean. Breakfast is good. Happy Hour is awesome(free beer &amp; popcorn). I will definitely be back. More</t>
   </si>
   <si>
@@ -1489,6 +2306,30 @@
   </si>
   <si>
     <t>Quality service and room for a good price.   AJ at the front desk was very helpful and friendly.  During the happy hour, they serve free beer and popcorn which was enough to spark a few fun conversations with other guests and make for a fun and relaxing evening after a busy day of work on the road.  The gym was small but had everything I needed for a good workout.  Next time, I'll bring a swimsuit so I can take advantage of the beautiful pool that looked very inviting.Thanks for everything, AJ!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1675659-r111342477-Quality_Inn_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>111342477</t>
+  </si>
+  <si>
+    <t>06/03/2011</t>
+  </si>
+  <si>
+    <t>Are you kidding? No Quallity here!!</t>
+  </si>
+  <si>
+    <t>Worst Quality Inn we have ever stayed in. Normally we have a pretty good experience with this chain. Choice Hotels has let us down 2 times in a row now. Lobby is nice, but you do not stay in the lobby. 1st room was full of trash. The closet, under the bed, behind the furniture, full of trash. Management responded quickly, assigned another room. Again, trash and a bad smell.  3rd room was OK, but no 'Quality" here. Management tried to offer a lager room at a 'reduced rate', but it was to little, to late.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samtxa55, Manager at Quality Inn &amp; Suites, responded to this reviewResponded June 19, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2011</t>
+  </si>
+  <si>
+    <t>Worst Quality Inn we have ever stayed in. Normally we have a pretty good experience with this chain. Choice Hotels has let us down 2 times in a row now. Lobby is nice, but you do not stay in the lobby. 1st room was full of trash. The closet, under the bed, behind the furniture, full of trash. Management responded quickly, assigned another room. Again, trash and a bad smell.  3rd room was OK, but no 'Quality" here. Management tried to offer a lager room at a 'reduced rate', but it was to little, to late.More</t>
   </si>
 </sst>
 </file>
@@ -2023,7 +2864,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -2080,7 +2921,7 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>58</v>
@@ -2137,10 +2978,10 @@
         <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
         <v>52</v>
@@ -2173,54 +3014,48 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>67</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>70</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
       </c>
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -2257,13 +3092,13 @@
         <v>76</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2320,7 +3155,7 @@
         <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2350,46 +3185,46 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
         <v>84</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2397,7 +3232,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -2413,7 +3248,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2422,39 +3257,45 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>95</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
         <v>96</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -2494,32 +3335,24 @@
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>104</v>
-      </c>
-      <c r="X10" t="s">
-        <v>105</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -2535,58 +3368,48 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
         <v>107</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>108</v>
-      </c>
-      <c r="J11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>103</v>
       </c>
       <c r="O11" t="s">
         <v>52</v>
       </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>112</v>
-      </c>
-      <c r="X11" t="s">
-        <v>113</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -2602,7 +3425,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2611,45 +3434,39 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -2665,48 +3482,56 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>121</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="O13" t="s">
         <v>122</v>
       </c>
-      <c r="J13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" t="s">
-        <v>125</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="P13" t="n">
         <v>4</v>
       </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="X13" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -2722,36 +3547,38 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
         <v>127</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>128</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>129</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>130</v>
-      </c>
-      <c r="L14" t="s">
-        <v>131</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="n">
         <v>3</v>
@@ -2764,14 +3591,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>133</v>
-      </c>
-      <c r="X14" t="s">
-        <v>134</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2787,35 +3610,31 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
         <v>136</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
-        <v>137</v>
-      </c>
-      <c r="J15" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" t="s">
-        <v>139</v>
-      </c>
-      <c r="L15" t="s">
-        <v>140</v>
-      </c>
       <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>132</v>
-      </c>
-      <c r="O15" t="s">
-        <v>141</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
@@ -2826,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X15" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
@@ -2848,58 +3667,56 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
         <v>143</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
         <v>144</v>
       </c>
-      <c r="J16" t="s">
-        <v>145</v>
-      </c>
-      <c r="K16" t="s">
-        <v>146</v>
-      </c>
-      <c r="L16" t="s">
-        <v>147</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>148</v>
-      </c>
       <c r="O16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="X16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
@@ -2915,52 +3732,52 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
         <v>152</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>153</v>
-      </c>
-      <c r="J17" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" t="s">
-        <v>155</v>
-      </c>
-      <c r="L17" t="s">
-        <v>156</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>157</v>
       </c>
       <c r="O17" t="s">
         <v>52</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>158</v>
-      </c>
-      <c r="X17" t="s">
-        <v>159</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
@@ -2976,7 +3793,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2985,49 +3802,49 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
         <v>52</v>
       </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="X18" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
@@ -3043,7 +3860,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -3052,39 +3869,49 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="X19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -3100,7 +3927,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -3109,45 +3936,45 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>183</v>
-      </c>
-      <c r="X20" t="s">
-        <v>184</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
@@ -3163,7 +3990,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -3172,26 +3999,22 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
-      <c r="N21" t="s">
-        <v>191</v>
-      </c>
-      <c r="O21" t="s">
-        <v>141</v>
-      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
@@ -3202,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="X21" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -3224,7 +4047,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3233,47 +4056,39 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>191</v>
-      </c>
-      <c r="O22" t="s">
-        <v>198</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="X22" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="Y22" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
@@ -3289,7 +4104,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3298,43 +4113,49 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="X23" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
@@ -3350,7 +4171,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3359,43 +4180,47 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="O24" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="X24" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
@@ -3411,7 +4236,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3420,25 +4245,25 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3450,13 +4275,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="X25" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
@@ -3472,7 +4297,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3481,49 +4306,49 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>193</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
       <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="X26" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="Y26" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
@@ -3539,7 +4364,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3548,34 +4373,34 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="K27" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
+      <c r="N27" t="s">
+        <v>223</v>
+      </c>
+      <c r="O27" t="s">
+        <v>84</v>
+      </c>
       <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
         <v>4</v>
       </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3584,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="X27" t="s">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c r="Y27" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -3606,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3615,53 +4440,43 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="J28" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="O28" t="s">
         <v>52</v>
       </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="X28" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="Y28" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29">
@@ -3677,7 +4492,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3686,25 +4501,25 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="O29" t="s">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3716,13 +4531,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="X29" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="Y29" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30">
@@ -3738,7 +4553,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3747,53 +4562,49 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="J30" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>230</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
         <v>3</v>
       </c>
-      <c r="N30" t="s">
-        <v>260</v>
-      </c>
-      <c r="O30" t="s">
-        <v>141</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="X30" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="Y30" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31">
@@ -3809,7 +4620,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3818,53 +4629,39 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s">
-        <v>267</v>
-      </c>
-      <c r="O31" t="s">
-        <v>141</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>1</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="X31" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="Y31" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32">
@@ -3880,7 +4677,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3889,38 +4686,32 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="J32" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -3929,13 +4720,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="X32" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="Y32" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
@@ -3951,7 +4742,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3960,43 +4751,49 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="J33" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="K33" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
         <v>4</v>
       </c>
-      <c r="N33" t="s">
-        <v>260</v>
-      </c>
-      <c r="O33" t="s">
-        <v>252</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="X33" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="Y33" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34">
@@ -4012,7 +4809,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -4021,53 +4818,45 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="O34" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
       </c>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>1</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="X34" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="Y34" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35">
@@ -4083,7 +4872,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -4092,53 +4881,43 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="J35" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="K35" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="O35" t="s">
-        <v>252</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="X35" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="Y35" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
@@ -4154,7 +4933,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4163,43 +4942,47 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="J36" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="O36" t="s">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>158</v>
+        <v>279</v>
       </c>
       <c r="X36" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="Y36" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37">
@@ -4215,7 +4998,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4224,53 +5007,49 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="J37" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="K37" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="O37" t="s">
-        <v>77</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>158</v>
+        <v>301</v>
       </c>
       <c r="X37" t="s">
-        <v>159</v>
+        <v>302</v>
       </c>
       <c r="Y37" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38">
@@ -4286,7 +5065,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4295,53 +5074,49 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="J38" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="K38" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="O38" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>158</v>
+        <v>310</v>
       </c>
       <c r="X38" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="Y38" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39">
@@ -4357,7 +5132,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4366,47 +5141,43 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="J39" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="K39" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="O39" t="s">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>158</v>
+        <v>301</v>
       </c>
       <c r="X39" t="s">
-        <v>159</v>
+        <v>302</v>
       </c>
       <c r="Y39" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40">
@@ -4422,7 +5193,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4431,53 +5202,43 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="J40" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="K40" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>158</v>
+        <v>279</v>
       </c>
       <c r="X40" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="Y40" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41">
@@ -4493,7 +5254,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4502,53 +5263,43 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="J41" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="K41" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="L41" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>1</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
       <c r="X41" t="s">
-        <v>159</v>
+        <v>332</v>
       </c>
       <c r="Y41" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42">
@@ -4564,7 +5315,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4573,53 +5324,49 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J42" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K42" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L42" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s">
-        <v>322</v>
-      </c>
-      <c r="O42" t="s">
-        <v>77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>158</v>
+        <v>331</v>
       </c>
       <c r="X42" t="s">
-        <v>159</v>
+        <v>332</v>
       </c>
       <c r="Y42" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43">
@@ -4635,7 +5382,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4644,53 +5391,43 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="J43" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="K43" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="O43" t="s">
-        <v>141</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>158</v>
+        <v>310</v>
       </c>
       <c r="X43" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="Y43" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44">
@@ -4706,7 +5443,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4715,26 +5452,22 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="J44" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="K44" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
-      <c r="N44" t="s">
-        <v>361</v>
-      </c>
-      <c r="O44" t="s">
-        <v>52</v>
-      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
       <c r="P44" t="n">
         <v>1</v>
       </c>
@@ -4755,13 +5488,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>253</v>
+        <v>352</v>
       </c>
       <c r="X44" t="s">
-        <v>159</v>
+        <v>353</v>
       </c>
       <c r="Y44" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45">
@@ -4777,7 +5510,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4786,34 +5519,30 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="J45" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K45" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
-      <c r="N45" t="s">
-        <v>368</v>
-      </c>
-      <c r="O45" t="s">
-        <v>52</v>
-      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
         <v>5</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -4826,13 +5555,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="X45" t="s">
-        <v>159</v>
+        <v>353</v>
       </c>
       <c r="Y45" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46">
@@ -4848,7 +5577,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4857,22 +5586,26 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J46" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K46" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
+      <c r="N46" t="s">
+        <v>366</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
       <c r="P46" t="n">
         <v>5</v>
       </c>
@@ -4880,10 +5613,10 @@
         <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -4893,13 +5626,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>158</v>
+        <v>331</v>
       </c>
       <c r="X46" t="s">
-        <v>159</v>
+        <v>332</v>
       </c>
       <c r="Y46" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47">
@@ -4915,7 +5648,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4924,43 +5657,53 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J47" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K47" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>373</v>
+      </c>
+      <c r="O47" t="s">
+        <v>122</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
         <v>2</v>
       </c>
-      <c r="N47" t="s">
-        <v>381</v>
-      </c>
-      <c r="O47" t="s">
-        <v>77</v>
-      </c>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="X47" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="Y47" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48">
@@ -4976,7 +5719,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4985,24 +5728,28 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="J48" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K48" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L48" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+      <c r="N48" t="s">
+        <v>373</v>
+      </c>
+      <c r="O48" t="s">
+        <v>84</v>
+      </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
         <v>3</v>
@@ -5021,13 +5768,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>158</v>
+        <v>310</v>
       </c>
       <c r="X48" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="Y48" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49">
@@ -5043,7 +5790,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -5052,53 +5799,43 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="J49" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K49" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="L49" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>3</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>4</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>158</v>
+        <v>310</v>
       </c>
       <c r="X49" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="Y49" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50">
@@ -5114,7 +5851,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -5123,43 +5860,53 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="J50" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="K50" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="L50" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
-      </c>
-      <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
-      <c r="S50" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
       <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>158</v>
+        <v>310</v>
       </c>
       <c r="X50" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="Y50" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51">
@@ -5175,7 +5922,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -5184,53 +5931,53 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="J51" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K51" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="O51" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>253</v>
+        <v>400</v>
       </c>
       <c r="X51" t="s">
-        <v>159</v>
+        <v>401</v>
       </c>
       <c r="Y51" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52">
@@ -5246,7 +5993,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -5255,53 +6002,53 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="J52" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="K52" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="L52" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="O52" t="s">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="P52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>253</v>
+        <v>408</v>
       </c>
       <c r="X52" t="s">
-        <v>159</v>
+        <v>409</v>
       </c>
       <c r="Y52" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53">
@@ -5317,7 +6064,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -5326,34 +6073,34 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J53" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K53" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -5366,13 +6113,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="X53" t="s">
-        <v>159</v>
+        <v>409</v>
       </c>
       <c r="Y53" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54">
@@ -5388,7 +6135,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -5397,53 +6144,53 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="J54" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="K54" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L54" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="O54" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R54" t="n">
         <v>3</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>158</v>
+        <v>421</v>
       </c>
       <c r="X54" t="s">
-        <v>159</v>
+        <v>422</v>
       </c>
       <c r="Y54" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55">
@@ -5459,7 +6206,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5468,53 +6215,43 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="J55" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K55" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L55" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="O55" t="s">
-        <v>141</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="X55" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="Y55" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56">
@@ -5530,7 +6267,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5539,53 +6276,53 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="J56" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="K56" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="L56" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O56" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>158</v>
+        <v>436</v>
       </c>
       <c r="X56" t="s">
-        <v>159</v>
+        <v>437</v>
       </c>
       <c r="Y56" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57">
@@ -5601,7 +6338,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5610,34 +6347,34 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="J57" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="K57" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="L57" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>346</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -5650,13 +6387,13 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>158</v>
+        <v>444</v>
       </c>
       <c r="X57" t="s">
-        <v>159</v>
+        <v>422</v>
       </c>
       <c r="Y57" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58">
@@ -5672,7 +6409,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5681,49 +6418,53 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J58" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K58" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="L58" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>435</v>
+      </c>
+      <c r="O58" t="s">
+        <v>122</v>
+      </c>
       <c r="P58" t="n">
         <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>158</v>
+        <v>451</v>
       </c>
       <c r="X58" t="s">
-        <v>159</v>
+        <v>452</v>
       </c>
       <c r="Y58" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59">
@@ -5739,7 +6480,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5748,22 +6489,26 @@
         <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="J59" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K59" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L59" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
-      <c r="N59" t="s"/>
-      <c r="O59" t="s"/>
+      <c r="N59" t="s">
+        <v>459</v>
+      </c>
+      <c r="O59" t="s">
+        <v>346</v>
+      </c>
       <c r="P59" t="n">
         <v>5</v>
       </c>
@@ -5784,13 +6529,13 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="X59" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Y59" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60">
@@ -5806,7 +6551,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -5815,49 +6560,43 @@
         <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="J60" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K60" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L60" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="O60" t="s">
-        <v>77</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>5</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="X60" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="Y60" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61">
@@ -5873,7 +6612,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -5882,49 +6621,2878 @@
         <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="J61" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K61" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L61" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O61" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="s"/>
-      <c r="R61" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
       <c r="S61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="X61" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="Y61" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>477</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>478</v>
+      </c>
+      <c r="J62" t="s">
+        <v>479</v>
+      </c>
+      <c r="K62" t="s">
         <v>480</v>
+      </c>
+      <c r="L62" t="s">
+        <v>481</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>239</v>
+      </c>
+      <c r="X62" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>483</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>484</v>
+      </c>
+      <c r="J63" t="s">
+        <v>485</v>
+      </c>
+      <c r="K63" t="s">
+        <v>486</v>
+      </c>
+      <c r="L63" t="s">
+        <v>487</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>475</v>
+      </c>
+      <c r="O63" t="s">
+        <v>84</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>239</v>
+      </c>
+      <c r="X63" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>489</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>490</v>
+      </c>
+      <c r="J64" t="s">
+        <v>491</v>
+      </c>
+      <c r="K64" t="s">
+        <v>492</v>
+      </c>
+      <c r="L64" t="s">
+        <v>493</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>494</v>
+      </c>
+      <c r="O64" t="s">
+        <v>122</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>239</v>
+      </c>
+      <c r="X64" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>496</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>497</v>
+      </c>
+      <c r="J65" t="s">
+        <v>498</v>
+      </c>
+      <c r="K65" t="s">
+        <v>499</v>
+      </c>
+      <c r="L65" t="s">
+        <v>500</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>501</v>
+      </c>
+      <c r="O65" t="s">
+        <v>346</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>239</v>
+      </c>
+      <c r="X65" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>503</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>504</v>
+      </c>
+      <c r="J66" t="s">
+        <v>505</v>
+      </c>
+      <c r="K66" t="s">
+        <v>506</v>
+      </c>
+      <c r="L66" t="s">
+        <v>507</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>501</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>239</v>
+      </c>
+      <c r="X66" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>509</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>510</v>
+      </c>
+      <c r="J67" t="s">
+        <v>511</v>
+      </c>
+      <c r="K67" t="s">
+        <v>512</v>
+      </c>
+      <c r="L67" t="s">
+        <v>513</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>501</v>
+      </c>
+      <c r="O67" t="s">
+        <v>122</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>239</v>
+      </c>
+      <c r="X67" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>515</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>516</v>
+      </c>
+      <c r="J68" t="s">
+        <v>517</v>
+      </c>
+      <c r="K68" t="s">
+        <v>518</v>
+      </c>
+      <c r="L68" t="s">
+        <v>519</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>494</v>
+      </c>
+      <c r="O68" t="s">
+        <v>84</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>239</v>
+      </c>
+      <c r="X68" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>521</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>522</v>
+      </c>
+      <c r="J69" t="s">
+        <v>523</v>
+      </c>
+      <c r="K69" t="s">
+        <v>524</v>
+      </c>
+      <c r="L69" t="s">
+        <v>525</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>526</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>310</v>
+      </c>
+      <c r="X69" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>528</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>529</v>
+      </c>
+      <c r="J70" t="s">
+        <v>530</v>
+      </c>
+      <c r="K70" t="s">
+        <v>531</v>
+      </c>
+      <c r="L70" t="s">
+        <v>532</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>494</v>
+      </c>
+      <c r="O70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>239</v>
+      </c>
+      <c r="X70" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>534</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>535</v>
+      </c>
+      <c r="J71" t="s">
+        <v>536</v>
+      </c>
+      <c r="K71" t="s">
+        <v>537</v>
+      </c>
+      <c r="L71" t="s">
+        <v>538</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>494</v>
+      </c>
+      <c r="O71" t="s">
+        <v>122</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>239</v>
+      </c>
+      <c r="X71" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>540</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>541</v>
+      </c>
+      <c r="J72" t="s">
+        <v>542</v>
+      </c>
+      <c r="K72" t="s">
+        <v>543</v>
+      </c>
+      <c r="L72" t="s">
+        <v>544</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>494</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>545</v>
+      </c>
+      <c r="X72" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>548</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>549</v>
+      </c>
+      <c r="J73" t="s">
+        <v>550</v>
+      </c>
+      <c r="K73" t="s">
+        <v>551</v>
+      </c>
+      <c r="L73" t="s">
+        <v>552</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>494</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>239</v>
+      </c>
+      <c r="X73" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>554</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>555</v>
+      </c>
+      <c r="J74" t="s">
+        <v>556</v>
+      </c>
+      <c r="K74" t="s">
+        <v>557</v>
+      </c>
+      <c r="L74" t="s">
+        <v>558</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>559</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>310</v>
+      </c>
+      <c r="X74" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>561</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>562</v>
+      </c>
+      <c r="J75" t="s">
+        <v>563</v>
+      </c>
+      <c r="K75" t="s">
+        <v>564</v>
+      </c>
+      <c r="L75" t="s">
+        <v>565</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>566</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>239</v>
+      </c>
+      <c r="X75" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>568</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>569</v>
+      </c>
+      <c r="J76" t="s">
+        <v>570</v>
+      </c>
+      <c r="K76" t="s">
+        <v>571</v>
+      </c>
+      <c r="L76" t="s">
+        <v>572</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>239</v>
+      </c>
+      <c r="X76" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>574</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>575</v>
+      </c>
+      <c r="J77" t="s">
+        <v>576</v>
+      </c>
+      <c r="K77" t="s">
+        <v>577</v>
+      </c>
+      <c r="L77" t="s">
+        <v>578</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>579</v>
+      </c>
+      <c r="O77" t="s">
+        <v>122</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>310</v>
+      </c>
+      <c r="X77" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>581</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>582</v>
+      </c>
+      <c r="J78" t="s">
+        <v>583</v>
+      </c>
+      <c r="K78" t="s">
+        <v>584</v>
+      </c>
+      <c r="L78" t="s">
+        <v>585</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>586</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>239</v>
+      </c>
+      <c r="X78" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>588</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>589</v>
+      </c>
+      <c r="J79" t="s">
+        <v>590</v>
+      </c>
+      <c r="K79" t="s">
+        <v>591</v>
+      </c>
+      <c r="L79" t="s">
+        <v>592</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>586</v>
+      </c>
+      <c r="O79" t="s">
+        <v>84</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>310</v>
+      </c>
+      <c r="X79" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>594</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>595</v>
+      </c>
+      <c r="J80" t="s">
+        <v>596</v>
+      </c>
+      <c r="K80" t="s">
+        <v>597</v>
+      </c>
+      <c r="L80" t="s">
+        <v>598</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>239</v>
+      </c>
+      <c r="X80" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>600</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>601</v>
+      </c>
+      <c r="J81" t="s">
+        <v>602</v>
+      </c>
+      <c r="K81" t="s">
+        <v>603</v>
+      </c>
+      <c r="L81" t="s">
+        <v>604</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>605</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>239</v>
+      </c>
+      <c r="X81" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>607</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>608</v>
+      </c>
+      <c r="J82" t="s">
+        <v>609</v>
+      </c>
+      <c r="K82" t="s">
+        <v>610</v>
+      </c>
+      <c r="L82" t="s">
+        <v>611</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>566</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>612</v>
+      </c>
+      <c r="X82" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>615</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>616</v>
+      </c>
+      <c r="J83" t="s">
+        <v>617</v>
+      </c>
+      <c r="K83" t="s">
+        <v>618</v>
+      </c>
+      <c r="L83" t="s">
+        <v>619</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>566</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>612</v>
+      </c>
+      <c r="X83" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>621</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>622</v>
+      </c>
+      <c r="J84" t="s">
+        <v>623</v>
+      </c>
+      <c r="K84" t="s">
+        <v>624</v>
+      </c>
+      <c r="L84" t="s">
+        <v>625</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>626</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>239</v>
+      </c>
+      <c r="X84" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>628</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>629</v>
+      </c>
+      <c r="J85" t="s">
+        <v>630</v>
+      </c>
+      <c r="K85" t="s">
+        <v>631</v>
+      </c>
+      <c r="L85" t="s">
+        <v>632</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>633</v>
+      </c>
+      <c r="O85" t="s">
+        <v>122</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>310</v>
+      </c>
+      <c r="X85" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>635</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>636</v>
+      </c>
+      <c r="J86" t="s">
+        <v>637</v>
+      </c>
+      <c r="K86" t="s">
+        <v>638</v>
+      </c>
+      <c r="L86" t="s">
+        <v>639</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>640</v>
+      </c>
+      <c r="O86" t="s">
+        <v>346</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>310</v>
+      </c>
+      <c r="X86" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>642</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>643</v>
+      </c>
+      <c r="J87" t="s">
+        <v>644</v>
+      </c>
+      <c r="K87" t="s">
+        <v>645</v>
+      </c>
+      <c r="L87" t="s">
+        <v>646</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>640</v>
+      </c>
+      <c r="O87" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>310</v>
+      </c>
+      <c r="X87" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>648</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>649</v>
+      </c>
+      <c r="J88" t="s">
+        <v>650</v>
+      </c>
+      <c r="K88" t="s">
+        <v>651</v>
+      </c>
+      <c r="L88" t="s">
+        <v>652</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>653</v>
+      </c>
+      <c r="O88" t="s">
+        <v>122</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>239</v>
+      </c>
+      <c r="X88" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>655</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>656</v>
+      </c>
+      <c r="J89" t="s">
+        <v>657</v>
+      </c>
+      <c r="K89" t="s">
+        <v>658</v>
+      </c>
+      <c r="L89" t="s">
+        <v>659</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>653</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>239</v>
+      </c>
+      <c r="X89" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>661</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>662</v>
+      </c>
+      <c r="J90" t="s">
+        <v>663</v>
+      </c>
+      <c r="K90" t="s">
+        <v>664</v>
+      </c>
+      <c r="L90" t="s">
+        <v>665</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>666</v>
+      </c>
+      <c r="O90" t="s">
+        <v>84</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>239</v>
+      </c>
+      <c r="X90" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>668</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>669</v>
+      </c>
+      <c r="J91" t="s">
+        <v>670</v>
+      </c>
+      <c r="K91" t="s">
+        <v>671</v>
+      </c>
+      <c r="L91" t="s">
+        <v>672</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>673</v>
+      </c>
+      <c r="O91" t="s">
+        <v>122</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>674</v>
+      </c>
+      <c r="X91" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>677</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>678</v>
+      </c>
+      <c r="J92" t="s">
+        <v>679</v>
+      </c>
+      <c r="K92" t="s">
+        <v>680</v>
+      </c>
+      <c r="L92" t="s">
+        <v>681</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>673</v>
+      </c>
+      <c r="O92" t="s">
+        <v>122</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>682</v>
+      </c>
+      <c r="X92" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>685</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>686</v>
+      </c>
+      <c r="J93" t="s">
+        <v>687</v>
+      </c>
+      <c r="K93" t="s">
+        <v>688</v>
+      </c>
+      <c r="L93" t="s">
+        <v>689</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>666</v>
+      </c>
+      <c r="O93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>690</v>
+      </c>
+      <c r="X93" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>693</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>694</v>
+      </c>
+      <c r="J94" t="s">
+        <v>695</v>
+      </c>
+      <c r="K94" t="s">
+        <v>696</v>
+      </c>
+      <c r="L94" t="s">
+        <v>697</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>698</v>
+      </c>
+      <c r="O94" t="s">
+        <v>122</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>239</v>
+      </c>
+      <c r="X94" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>700</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>701</v>
+      </c>
+      <c r="J95" t="s">
+        <v>702</v>
+      </c>
+      <c r="K95" t="s">
+        <v>703</v>
+      </c>
+      <c r="L95" t="s">
+        <v>704</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>705</v>
+      </c>
+      <c r="O95" t="s">
+        <v>52</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>239</v>
+      </c>
+      <c r="X95" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>707</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>708</v>
+      </c>
+      <c r="J96" t="s">
+        <v>709</v>
+      </c>
+      <c r="K96" t="s">
+        <v>710</v>
+      </c>
+      <c r="L96" t="s">
+        <v>711</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>239</v>
+      </c>
+      <c r="X96" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>713</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>714</v>
+      </c>
+      <c r="J97" t="s">
+        <v>715</v>
+      </c>
+      <c r="K97" t="s">
+        <v>716</v>
+      </c>
+      <c r="L97" t="s">
+        <v>717</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>718</v>
+      </c>
+      <c r="O97" t="s">
+        <v>52</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>239</v>
+      </c>
+      <c r="X97" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>720</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>721</v>
+      </c>
+      <c r="J98" t="s">
+        <v>722</v>
+      </c>
+      <c r="K98" t="s">
+        <v>723</v>
+      </c>
+      <c r="L98" t="s">
+        <v>724</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>725</v>
+      </c>
+      <c r="O98" t="s">
+        <v>52</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>2</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>726</v>
+      </c>
+      <c r="X98" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>729</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>730</v>
+      </c>
+      <c r="J99" t="s">
+        <v>731</v>
+      </c>
+      <c r="K99" t="s">
+        <v>732</v>
+      </c>
+      <c r="L99" t="s">
+        <v>733</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>231</v>
+      </c>
+      <c r="X99" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>735</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>736</v>
+      </c>
+      <c r="J100" t="s">
+        <v>737</v>
+      </c>
+      <c r="K100" t="s">
+        <v>738</v>
+      </c>
+      <c r="L100" t="s">
+        <v>739</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>740</v>
+      </c>
+      <c r="O100" t="s">
+        <v>84</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>239</v>
+      </c>
+      <c r="X100" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>742</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>743</v>
+      </c>
+      <c r="J101" t="s">
+        <v>744</v>
+      </c>
+      <c r="K101" t="s">
+        <v>745</v>
+      </c>
+      <c r="L101" t="s">
+        <v>746</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>740</v>
+      </c>
+      <c r="O101" t="s">
+        <v>84</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>239</v>
+      </c>
+      <c r="X101" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>57728</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>748</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>749</v>
+      </c>
+      <c r="J102" t="s">
+        <v>750</v>
+      </c>
+      <c r="K102" t="s">
+        <v>751</v>
+      </c>
+      <c r="L102" t="s">
+        <v>752</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>740</v>
+      </c>
+      <c r="O102" t="s">
+        <v>52</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>753</v>
+      </c>
+      <c r="X102" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>755</v>
       </c>
     </row>
   </sheetData>
